--- a/uploads/p2 stud asasi upnm dt.xlsx
+++ b/uploads/p2 stud asasi upnm dt.xlsx
@@ -12,12 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="27">
   <si>
-    <t>nama</t>
+    <t>Kod  Program</t>
   </si>
   <si>
-    <t>Kod  Program</t>
+    <t>statusterimatawaran</t>
   </si>
   <si>
     <t>muet</t>
@@ -32,970 +32,67 @@
     <t>purata pngk</t>
   </si>
   <si>
-    <t>ARKASHA SYAHIRAN BIN ARMAN</t>
-  </si>
-  <si>
     <t>ZK02</t>
   </si>
   <si>
-    <t>NIK ARIF ARSYAD BIN MOHD FADZALUDIN</t>
-  </si>
-  <si>
-    <t>AHMAD FAHMI RAZI BIN AHMAD FAIRUS</t>
+    <t>Terima Tawaran</t>
   </si>
   <si>
     <t>ZK09</t>
   </si>
   <si>
-    <t>IBNU AMAR NABIL BIN ABU BAKAR</t>
-  </si>
-  <si>
-    <t>MOHAMAD ERFAN HAYQAL BIN AHMAD FAIZAL</t>
-  </si>
-  <si>
-    <t>MUHAMMAD ADIB SHAFIQ BIN BADERI</t>
-  </si>
-  <si>
-    <t>MUHAMMAD AMMAR DANIEL BIN SHAHRIL</t>
-  </si>
-  <si>
-    <t>MUHAMMAD ANAQI BIN FARIDZAL</t>
-  </si>
-  <si>
-    <t>MUHAMMAD HAZIQ BIN MOHD TALIB</t>
-  </si>
-  <si>
-    <t>MUHAMMAD KHAIRIL ZAFFRAN BIN MOHAMAD KHIDHIR</t>
-  </si>
-  <si>
-    <t>MUHAMMAD LUTFI NURHAKIM HALIMMURRASHID BIN DARWIS</t>
-  </si>
-  <si>
-    <t>MUHAMMAD MURSYID BIN MOHD YUSOF</t>
-  </si>
-  <si>
-    <t>MUHAMMAD NOR AFIQ BIN ROSDI</t>
-  </si>
-  <si>
-    <t>MUHAMMAD SAUQI IKHWAN BIN JAFARDIN</t>
-  </si>
-  <si>
-    <t>MUHAMMAD ZULHAIKAL BIN MOHD RODZI</t>
-  </si>
-  <si>
-    <t>NUR FATIN NADHIRAH BINTI AHMAD FIRDAUS</t>
-  </si>
-  <si>
-    <t>RAHIMI AKMAL BIN ROSLEE</t>
-  </si>
-  <si>
-    <t>SHAZWAN HAKIM BIN MOHD HELMI</t>
-  </si>
-  <si>
-    <t>SYED MUHAMMAD AMEER HAMZAH BIN SYED OMAR</t>
-  </si>
-  <si>
-    <t>WAN NADZRUL HISHAM BIN W NIRUZAN</t>
-  </si>
-  <si>
-    <t>YEONG KIAN RUI</t>
-  </si>
-  <si>
-    <t>CHONG JING</t>
-  </si>
-  <si>
     <t>ZK23</t>
-  </si>
-  <si>
-    <t>FAWWAZ NAUFAL BIN GHOZALI</t>
-  </si>
-  <si>
-    <t>HAIKAL IKHWAN BIN HAFISS</t>
-  </si>
-  <si>
-    <t>MUHAMMAD ABUZAR BIN MUSTHAFA KAMAL</t>
-  </si>
-  <si>
-    <t>MUHAMMAD ADAM BIN ADNAN</t>
-  </si>
-  <si>
-    <t>MUHAMMAD FAZLEE BIN ZULKIFLI</t>
-  </si>
-  <si>
-    <t>MUHAMMAD HAZIQ HAIQAL BIN SAIFULAMRI</t>
-  </si>
-  <si>
-    <t>AHMAD SYUKRI RAMADAN BIN YUSRI</t>
   </si>
   <si>
     <t>ZC01</t>
   </si>
   <si>
-    <t>ALIFAH NURAIN FARZANA BINTI KAMARULZAMAN</t>
-  </si>
-  <si>
-    <t>AMIR DANIAL BIN AHMAD JAILAINI</t>
-  </si>
-  <si>
-    <t>MOHAMAD SYUKRI BIN MOHD ZAMRI</t>
-  </si>
-  <si>
     <t>ZG37</t>
-  </si>
-  <si>
-    <t>MUHAMAD AMIRUL HARITH BIN ROZI</t>
-  </si>
-  <si>
-    <t>MUHAMMAD ADAM HARRIS BIN MOHD FAIZUL</t>
-  </si>
-  <si>
-    <t>MUHAMMAD ADIB FARHAN BIN HALIL</t>
-  </si>
-  <si>
-    <t>MUHAMMAD DANIAL BIN SAHARUDIN</t>
-  </si>
-  <si>
-    <t>MUHAMMAD HASDY DANIEL BIN MOHD NAZIR</t>
-  </si>
-  <si>
-    <t>SUTAN ISKANDAR BIN SUTAN MAHMOOD</t>
-  </si>
-  <si>
-    <t>ADHAM KAISAAN BIN AHMAD KAMIL</t>
   </si>
   <si>
     <t>ZC21</t>
   </si>
   <si>
-    <t>AHMAD THAQIF BIN BADRUL HISYAM</t>
-  </si>
-  <si>
-    <t>ILHAM FARIQ BIN SHAHARUDDIN</t>
-  </si>
-  <si>
-    <t>KHAIRULAMIRIN BIN KHAIRUDDIN</t>
-  </si>
-  <si>
-    <t>MUHAMMAD AFIQ AIMAN BIN NOOR KAMARUZAMAN</t>
-  </si>
-  <si>
-    <t>MUHAMMAD AIMUS ALAMIN BIN ZURAIDI</t>
-  </si>
-  <si>
-    <t>MUHAMMAD AZROL HAFIZ BIN ASROL MIZAL</t>
-  </si>
-  <si>
-    <t>MUHAMMAD RIDZUAN BIN MAT RASHID</t>
-  </si>
-  <si>
-    <t>SAIDFUDIN BIN EBBAS</t>
-  </si>
-  <si>
-    <t>SYED WAN MOHAMAD SYAHMI BIN SYED NASIR</t>
-  </si>
-  <si>
-    <t>MOHAMAD RAZIQ YUSOF BIN MOHD NORZISYAM</t>
-  </si>
-  <si>
     <t>ZC27</t>
-  </si>
-  <si>
-    <t>MUHAMMAD ADIB BIN ARIS</t>
-  </si>
-  <si>
-    <t>MUHAMMAD AIMAN ALTHAMIS BIN NORIZAN</t>
-  </si>
-  <si>
-    <t>MUHAMMAD DANISH BIN MOHD AZIZAN</t>
-  </si>
-  <si>
-    <t>MUHAMMAD FARIS AIMAN BIN MUHAMMAD</t>
-  </si>
-  <si>
-    <t>MUHAMMAD FARISH DANISH BIN CHE HAMDAN</t>
-  </si>
-  <si>
-    <t>MUHAMMAD IQBAL HANIF BIN MOHD ZAIDI</t>
-  </si>
-  <si>
-    <t>MUHAMMAD ZULHAZIQ BIN ZULKIFLI</t>
-  </si>
-  <si>
-    <t>NUR ADIBA IZYAN BINTI MAT TOHID</t>
-  </si>
-  <si>
-    <t>NUR NASREEN QAIRYNA BINTI MOHD KHAIRI</t>
-  </si>
-  <si>
-    <t>NURNAIMI HUMAIRA BINTI MOHAMAD YUSRI YAP</t>
-  </si>
-  <si>
-    <t>QUBEHRAN KUMAR A/L P SIVAKUMAR</t>
-  </si>
-  <si>
-    <t>RAJA NUR AMIRUL HAKIMI BIN RAJA NORSHAHALAM</t>
-  </si>
-  <si>
-    <t>AHMAD ALEXANDER AZIZ BIN MOHAMAD AL AMIN</t>
   </si>
   <si>
     <t>ZC33</t>
   </si>
   <si>
-    <t>ARISSA BALQIS BINTI AMIZUDIN</t>
-  </si>
-  <si>
-    <t>AZFARINA ZAFIRA BINTI MOHD AZHAR</t>
-  </si>
-  <si>
-    <t>LUTHFIL HAIKAL BIN HASWADI</t>
-  </si>
-  <si>
-    <t>MOHAMMAD ADAM ADHA BIN ANUAR</t>
-  </si>
-  <si>
-    <t>MUHAMMAD DANIEL HAKIEM BIN NOR AZMI</t>
-  </si>
-  <si>
-    <t>MUHAMMAD FAHMI BIN ZAHADI</t>
-  </si>
-  <si>
-    <t>MUHAMMAD HARMAINUL QARDAWI BIN HAIRILIZAM</t>
-  </si>
-  <si>
-    <t>MUHAMMAD NUR FAHMIE BIN ABD.JALIL</t>
-  </si>
-  <si>
-    <t>NOOR HAFIEZEE BIN MOHAMMAD FAUZEY</t>
-  </si>
-  <si>
-    <t>NUR SYAZWANI BINTI NOR AL FANSOL SOLDAIN</t>
-  </si>
-  <si>
-    <t>WAN NURAISYATUL ATHIRAH BINTI WAN ZIZI</t>
-  </si>
-  <si>
-    <t>AHMAD AFIQ BIN MAHADHIR</t>
-  </si>
-  <si>
-    <t>AHMAD ANAS BIN MOHD RUHUZAD</t>
-  </si>
-  <si>
-    <t>AIRIL REDZWAN BIN AZMAN</t>
-  </si>
-  <si>
-    <t>DHIVYESSH A/L MOHANASUNDARAM</t>
-  </si>
-  <si>
-    <t>FARISH DANIEL BIN FAKHRURAZI</t>
-  </si>
-  <si>
-    <t>MOHAMED ARIEFF EZZWAN BIN MASROM</t>
-  </si>
-  <si>
-    <t>MUHAMAD THAQIF IMRAN BIN MOHD ALI</t>
-  </si>
-  <si>
-    <t>MUHAMMAD ALIFF AIMAN BIN ISA</t>
-  </si>
-  <si>
-    <t>MUHAMMAD ANIQ MIRZA BIN MAHADI</t>
-  </si>
-  <si>
-    <t>MUHAMMAD DANIEL QUSAIRRY BIN MOHD HIRI</t>
-  </si>
-  <si>
-    <t>MUHAMMAD NADZIF RAYYAN BIN ROSDI</t>
-  </si>
-  <si>
-    <t>MUHAMMAD NAUFAL BIN MOHD AZUDIN</t>
-  </si>
-  <si>
-    <t>MUIEZ AFIFF BIN MOHD NOR ALI</t>
-  </si>
-  <si>
-    <t>NUQMAN ADHA BIN MOHAMMAD SAIFUL</t>
-  </si>
-  <si>
-    <t>DZULQAYYUM BIN ZULKIFLI</t>
-  </si>
-  <si>
     <t>ZG57</t>
-  </si>
-  <si>
-    <t>MUHAMMAD HASAMUDIN BIN MAZLAN</t>
-  </si>
-  <si>
-    <t>PRRASANA A/P SURES KUMAR</t>
-  </si>
-  <si>
-    <t>AIRELL RAIYAN BIN MOHD ZAIMI SHAM</t>
   </si>
   <si>
     <t>ZP44</t>
   </si>
   <si>
-    <t>DANISH AIMAN BIN ABD MAJID</t>
-  </si>
-  <si>
-    <t>ELDRYS NUR ADAM BIN IZZAIDDEAN</t>
-  </si>
-  <si>
-    <t>IREEN BASIRAH BINTI MOHD ZAIDI</t>
-  </si>
-  <si>
-    <t>KHAIRUL ANWAR BIN SUHUD</t>
-  </si>
-  <si>
-    <t>MOHAMAD NUR HAZRIQ BIN AHMAD JAZAM</t>
-  </si>
-  <si>
-    <t>MUHAMMAD ADAM BIN ZAINUDIN</t>
-  </si>
-  <si>
-    <t>MUHAMMAD ALLIF FARHAN BIN SUHAIMI</t>
-  </si>
-  <si>
-    <t>MUHAMMAD AZRIL NAZRIN BIN ABU ZARIN</t>
-  </si>
-  <si>
-    <t>MUHAMMAD KHAIRUL AMIN BIN KHAIRUL ANUAR</t>
-  </si>
-  <si>
-    <t>MUHAMMAD MUNIR BIN ZAHARI</t>
-  </si>
-  <si>
-    <t>PRAWIT A/L CHIN</t>
-  </si>
-  <si>
-    <t>ADAM FIRDAUZ BIN MOHD NIZAM</t>
-  </si>
-  <si>
     <t>ZP45</t>
   </si>
   <si>
-    <t>ADAM SHAHMI BIN ROSDI</t>
-  </si>
-  <si>
-    <t>ADLI HARIS BIN ZIHADI</t>
-  </si>
-  <si>
-    <t>AHMAD FIRDAUS BIN MOHD SABRI</t>
-  </si>
-  <si>
-    <t>AHMAD MUKHRIZ ADAM BIN SHAIFUL AZHAR</t>
-  </si>
-  <si>
-    <t>AHMAD NAFIS BIN AMIRUL ZAMIR</t>
-  </si>
-  <si>
-    <t>AHMAD NAZRI BIN MOHD YUSOF</t>
-  </si>
-  <si>
-    <t>AISYAH NADIAH BINTI MOHD ZAHIR</t>
-  </si>
-  <si>
-    <t>ALANI FATINI BINTI ABDUL RAZAK</t>
-  </si>
-  <si>
-    <t>ALLYSHA HAZIQA BINTI HISHAMUDDIN</t>
-  </si>
-  <si>
-    <t>AMIR FIRZAN BIN AHMAD FUAD</t>
-  </si>
-  <si>
-    <t>AMIR NURHAKEEM BIN ABD GHANI</t>
-  </si>
-  <si>
-    <t>AMIRULL BAHARUDIN BIN ABU BAKAR</t>
-  </si>
-  <si>
-    <t>FAIZ BIN BADERUL AMIN</t>
-  </si>
-  <si>
-    <t>HAIQAL HAQIM BIN ABDULLAH</t>
-  </si>
-  <si>
-    <t>IZZUL RAMADHAN BIN ZAKARIA</t>
-  </si>
-  <si>
-    <t>LEONARD ARONSON BONG</t>
-  </si>
-  <si>
-    <t>LIZ ANGEL ANAK DONNY</t>
-  </si>
-  <si>
-    <t>MEGAT FARHAN IKHWAN BIN MEGAT JIZI</t>
-  </si>
-  <si>
-    <t>MOHAMAD AMIRUL FARIZAN BIN MOHD ZAINIZAN</t>
-  </si>
-  <si>
-    <t>MOHAMAD FARIS AZIZI BIN MOHD IDRIS</t>
-  </si>
-  <si>
-    <t>MUHAMAD AIMAN HAKIMI BIN MD RISMAN</t>
-  </si>
-  <si>
-    <t>MUHAMAD HAZIQ IRFAN BIN MOHD NIZA</t>
-  </si>
-  <si>
-    <t>MUHAMMAD ADAM HARRIZ BIN NAZRI</t>
-  </si>
-  <si>
-    <t>MUHAMMAD AIDID HAKIMI BIN ABDUL RAHAMAN</t>
-  </si>
-  <si>
-    <t>MUHAMMAD AIMAN ISYRAF BIN MAZLAN</t>
-  </si>
-  <si>
-    <t>MUHAMMAD AKMAL BIN ROSLAN</t>
-  </si>
-  <si>
-    <t>MUHAMMAD AMINUDDIN BIN MOHAMAD HAZIZI</t>
-  </si>
-  <si>
-    <t>MUHAMMAD AMIR BIN MOHD SA`AD</t>
-  </si>
-  <si>
-    <t>MUHAMMAD ANIQ NASHRAN BIN MOHD TARMIZEE</t>
-  </si>
-  <si>
-    <t>MUHAMMAD ARIF HAIKAL BIN HAYAZI</t>
-  </si>
-  <si>
-    <t>MUHAMMAD ASYRAAF DANIAL BIN ABDUL KADIR JAYALANI</t>
-  </si>
-  <si>
-    <t>MUHAMMAD AZRIEY IZHAM BIN MOHD KHAIRUL ANUAR</t>
-  </si>
-  <si>
-    <t>MUHAMMAD AZUAN SYAFIQ BIN SYUHAIMI</t>
-  </si>
-  <si>
-    <t>MUHAMMAD DANIAL BIN HAIZAL</t>
-  </si>
-  <si>
-    <t>MUHAMMAD DANISH BIN AZLI AZAMIN</t>
-  </si>
-  <si>
-    <t>MUHAMMAD DARWISH BIN MUNAWARUZAMAN</t>
-  </si>
-  <si>
-    <t>MUHAMMAD FARHAN BIN MOHD YUSOFF</t>
-  </si>
-  <si>
-    <t>MUHAMMAD FARHAN HAFIZI BIN MOHD FARID</t>
-  </si>
-  <si>
-    <t>MUHAMMAD HAIKAL BIN RAZALI</t>
-  </si>
-  <si>
-    <t>MUHAMMAD HAZIQ BIN SAIDIN</t>
-  </si>
-  <si>
-    <t>MUHAMMAD IRFAN PUTRA BIN MUHAMMAD AZAMIN</t>
-  </si>
-  <si>
-    <t>MUHAMMAD IRSYAD BIN MOHD AMIN</t>
-  </si>
-  <si>
-    <t>MUHAMMAD ISKANDAR BIN AMIR</t>
-  </si>
-  <si>
-    <t>MUHAMMAD IZZAT NAJMI BIN ROSMADI</t>
-  </si>
-  <si>
-    <t>MUHAMMAD NURHANIFF BIN ABDULL HAMID</t>
-  </si>
-  <si>
-    <t>MUHAMMAD SYUKRI ARIF NADZMI BIN ZAINAL</t>
-  </si>
-  <si>
-    <t>MUHAMMAD ZULFAHMI BIN JAMALI</t>
-  </si>
-  <si>
-    <t>NOR NAJIAH ATHIRAH BINTI ABD MAJID</t>
-  </si>
-  <si>
-    <t>NUR ALIA SYAFIQAH BINTI MOHD ARSHAD</t>
-  </si>
-  <si>
-    <t>NUR ARYN SOFEA BINTI M. NOR</t>
-  </si>
-  <si>
-    <t>NUR FARAH HANA BINTI HUZAINI</t>
-  </si>
-  <si>
-    <t>NURHIDAYAH BINTI YAHYA</t>
-  </si>
-  <si>
-    <t>NURIN IZZATI BINTI TARMIMI</t>
-  </si>
-  <si>
-    <t>NURIN JAZLINA BINTI MOHD ZANI</t>
-  </si>
-  <si>
-    <t>NURUL IFFAH IMANINA BINTI YUSRI</t>
-  </si>
-  <si>
-    <t>NURUL NURSYAZLIANA NATRAH BINTI ISMAIL @ FADIL</t>
-  </si>
-  <si>
-    <t>PAVITHRAN PILLAI A/L SIVANESAN</t>
-  </si>
-  <si>
-    <t>RAZIN IMAN BIN ABDUL AZIZ</t>
-  </si>
-  <si>
-    <t>ROS SHAFIQA BINTI ROSLI</t>
-  </si>
-  <si>
-    <t>SHAMIZUL AIMAN BIN SAMSOOL</t>
-  </si>
-  <si>
-    <t>SHAMSUL ZAIRUL HAQUEMEE BIN SHAMSUL ZAIDI</t>
-  </si>
-  <si>
-    <t>SHANGKARAN A/L THIRUMURUGAN</t>
-  </si>
-  <si>
-    <t>TENGKU MUAZZIM SYAHPUTRA BIN TENGKU RAZALI</t>
-  </si>
-  <si>
-    <t>ANIS SOFEA BINTI MOHD KHALID</t>
+    <t>Tolak Tawaran</t>
   </si>
   <si>
     <t>ZP47</t>
   </si>
   <si>
-    <t>ARIFSYAHMI ZIKRI BIN JAMALUDIN</t>
-  </si>
-  <si>
-    <t>CHE WAN DANIA AZLIN BINTI CHE WAN ROSAIDI</t>
-  </si>
-  <si>
-    <t>HAMIZ HAMIMI MOHD HUSWAZI</t>
-  </si>
-  <si>
-    <t>HANIS SYAHIRAH BINTI ISHAM</t>
-  </si>
-  <si>
-    <t>INTAN NUR AYUNI BINTI MOHD SHOHAIMI</t>
-  </si>
-  <si>
-    <t>INTAN ZULAIKHA BINTI ANUAR</t>
-  </si>
-  <si>
-    <t>KRISYANTINI ANNE RAJ NAIR A/P SARAVANAN</t>
-  </si>
-  <si>
-    <t>LUTH MIKHAIL BIN RIZWAN</t>
-  </si>
-  <si>
-    <t>MOHAMAD AFFANDI BIN MAHULUD</t>
-  </si>
-  <si>
-    <t>MOHAMAD ISKANDAR ZULKARNAIN BIN ZULKIFLEE</t>
-  </si>
-  <si>
-    <t>MOHAMMAD HARITS BIN MOHD EMRAN</t>
-  </si>
-  <si>
-    <t>MUHAMAD AMIERUL BIN AZLI</t>
-  </si>
-  <si>
-    <t>MUHAMAD ATIF HAZIQ BIN SAFAR</t>
-  </si>
-  <si>
-    <t>MUHAMMAD AFIQ BIN JUYANA @ AZLAN</t>
-  </si>
-  <si>
-    <t>MUHAMMAD AFIQ FIRDAUS BIN MOHD ZAKI</t>
-  </si>
-  <si>
-    <t>MUHAMMAD AIMAN ISKANDAR BIN MUHAMAD SALIH</t>
-  </si>
-  <si>
-    <t>MUHAMMAD ALIF IMRAN BIN RASHID</t>
-  </si>
-  <si>
-    <t>MUHAMMAD AZUDIN AFIQ BIN AZMAN</t>
-  </si>
-  <si>
-    <t>MUHAMMAD DANIEAL AZHARI BIN TONI MARDIANTO</t>
-  </si>
-  <si>
-    <t>MUHAMMAD EZWAN SHAHRUL A'MRI BIN MAT SUHAIMI</t>
-  </si>
-  <si>
-    <t>MUHAMMAD FADZLI BIN IBRAHIM</t>
-  </si>
-  <si>
-    <t>MUHAMMAD HAKIM BIN NORHAZRI</t>
-  </si>
-  <si>
-    <t>MUHAMMAD ISKANDAR SHAH BIN ZULKIFLEE</t>
-  </si>
-  <si>
-    <t>MUHAMMAD NAQIUDDIN BIN AHMAD JUMARI</t>
-  </si>
-  <si>
-    <t>MUHAMMAD NOR AZIM BIN SHAHARUDIN</t>
-  </si>
-  <si>
-    <t>MUHAMMAD RAKLEE BIN MAT ZAIN</t>
-  </si>
-  <si>
-    <t>MUHAMMAD RAUFFUDDIN BIN JUFFERY</t>
-  </si>
-  <si>
-    <t>MUHAMMAD SAIFULLAH RAFIE' BIN ROSZAINI</t>
-  </si>
-  <si>
-    <t>MUHAMMAD SHAFIQ SHAUQIE BIN IZHAM</t>
-  </si>
-  <si>
-    <t>NOR HANIS ELLINNA BINTI ROSLY</t>
-  </si>
-  <si>
-    <t>NORAMIZAH BINTI AWANG</t>
-  </si>
-  <si>
-    <t>NUR AISYAH BINTI SHAMSUL BAHRIN</t>
-  </si>
-  <si>
-    <t>NUR BASIRAH BINTI ABD RAHIM</t>
-  </si>
-  <si>
-    <t>NUR FATIN AQILAH BINTI RUSLAN</t>
-  </si>
-  <si>
-    <t>NUR MAISARAH BINTI ROSLI FADZIL</t>
-  </si>
-  <si>
-    <t>NUR NABILAH INSYIRAH BINTI MOHAMMAD RIZAL</t>
-  </si>
-  <si>
-    <t>NURWALIN DARWISYAH BINTI ABU ZARIM</t>
-  </si>
-  <si>
-    <t>PUTERI KHAIRUNSYAFIAH ATHIRAH BINTI MEGAT MAZNI</t>
-  </si>
-  <si>
-    <t>SYED FARIZ BIN SYED MOHD MUKRY</t>
-  </si>
-  <si>
-    <t>UMAR AL KHATAB BIN SHA HARUDIN</t>
-  </si>
-  <si>
-    <t>YASMIN ERLYANA BINTI MUHAMAD FADLAN</t>
-  </si>
-  <si>
-    <t>ZARIF DANIAL BIN ZAHRIN</t>
-  </si>
-  <si>
-    <t>AFFRAIZAL AIDIL BIN AMIR</t>
-  </si>
-  <si>
     <t>ZP58</t>
-  </si>
-  <si>
-    <t>AFIQ HANIF BIN MOHD RODZUAN</t>
-  </si>
-  <si>
-    <t>AIN NURANEESA BINTI MAHAZIR</t>
-  </si>
-  <si>
-    <t>ALIF HAIKAL BIN KAMEL</t>
-  </si>
-  <si>
-    <t>FARUQ ADAM SHAH BIN SHAROLNIZAM</t>
-  </si>
-  <si>
-    <t>IRFAN DARWISH PUTRA BIN MISBAH</t>
-  </si>
-  <si>
-    <t>MOHAMAD HAZIM BIN ROZLAN</t>
-  </si>
-  <si>
-    <t>MUHAMMAD ADAM BIN JAMRI</t>
-  </si>
-  <si>
-    <t>MUHAMMAD AFIQ SYAZWAN BIN MOHD FARIZ</t>
-  </si>
-  <si>
-    <t>MUHAMMAD AIMAN FAHIM BIN NOR HAZRI</t>
-  </si>
-  <si>
-    <t>MUHAMMAD AMIRUL HAKIMI BIN MOHD NAZLI</t>
-  </si>
-  <si>
-    <t>MUHAMMAD AMMAR HAZIQ BIN HAYAZI</t>
-  </si>
-  <si>
-    <t>MUHAMMAD ASMAR ZAFRAN BIN ASHADI</t>
-  </si>
-  <si>
-    <t>MUHAMMAD DANIE ISKANDAR BIN MOHAMED AFZAINIZAM</t>
-  </si>
-  <si>
-    <t>MUHAMMAD FIRAS HADIF BIN KAMARUL AZMI</t>
-  </si>
-  <si>
-    <t>MUHAMMAD HAZIQ NASRULLAH BIN MOHAMAD MUNAWAR</t>
-  </si>
-  <si>
-    <t>MUHAMMAD HAZIQRULLAH BIN SAMSUR KAMAL</t>
-  </si>
-  <si>
-    <t>MUHAMMAD IKMAL AFIQ BIN SARDI</t>
-  </si>
-  <si>
-    <t>MUHAMMAD IRFAN BIN MOHD YUSOF</t>
-  </si>
-  <si>
-    <t>MUHAMMAD IZZUL DANISH BIN SAMSURI</t>
-  </si>
-  <si>
-    <t>MUHAMMAD KHUZAIRI BIN ABDULLAH</t>
-  </si>
-  <si>
-    <t>MUHAMMAD NAZMIUDDIN WAFI BIN JUNAIDI</t>
-  </si>
-  <si>
-    <t>MUHAMMAD NAZRIEL MIERZA BIN AZMI</t>
-  </si>
-  <si>
-    <t>NOR HAMIZAH BINTI RAMLAN</t>
-  </si>
-  <si>
-    <t>PUTRA ADAM BIN AMIRUDIN</t>
-  </si>
-  <si>
-    <t>SYAZRIQ IRFAN AFIFI BIN SAHRI</t>
-  </si>
-  <si>
-    <t>SYAZWAN IKMAL BIN SYARIFFUDIN</t>
-  </si>
-  <si>
-    <t>SYED AKMAL RIDZUAN BIN SYED AZMI</t>
-  </si>
-  <si>
-    <t>TANESWARAN A/L R PRAKESH</t>
-  </si>
-  <si>
-    <t>AHMAD LUQMAN BIN ROSLI</t>
   </si>
   <si>
     <t>ZP63</t>
   </si>
   <si>
-    <t>AHMAD SUHAIB BIN HISAHUDDIN</t>
-  </si>
-  <si>
-    <t>MOHAMAD FARIS DANIAL BIN KODRI</t>
-  </si>
-  <si>
-    <t>MUHAMAD HAFIZ BIN ABDUL JALIL</t>
-  </si>
-  <si>
-    <t>MUHAMMAD ABID BIN AZHAR</t>
-  </si>
-  <si>
-    <t>MUHAMMAD IQBAL DANIAL BIN MOHD ZUKRI</t>
-  </si>
-  <si>
-    <t>NUR HIDAYAH BINTI ABDUL MUTALIB</t>
-  </si>
-  <si>
-    <t>NUR MUHAMMAD ADAM AKHIMULLAH BIN SAIFUL FARIK</t>
-  </si>
-  <si>
-    <t>SITI NUR MAISARAH BINTI MAZNAAN</t>
-  </si>
-  <si>
-    <t>HABIL NAQEEB BIN HASRI</t>
-  </si>
-  <si>
-    <t>IRSYAD ILHAM BIN MUHD FARIZ</t>
-  </si>
-  <si>
-    <t>MUHAMMAD ALIF BIN MOHD NASIR</t>
-  </si>
-  <si>
-    <t>MUHAMMAD AMIRUL ARMAN BIN NASARUDDIN</t>
-  </si>
-  <si>
-    <t>MUHAMMAD AMIRUL ASYRAAF BIN AB. HAMID</t>
-  </si>
-  <si>
-    <t>ABDUL MUTHOLIB BIN ABDUL RAHMAN</t>
-  </si>
-  <si>
     <t>ZP64</t>
-  </si>
-  <si>
-    <t>AHMAD DANIAL BIN MOHAMAD ISMAIL</t>
-  </si>
-  <si>
-    <t>AIMAR ISKANDAR BIN SHAZWAN</t>
-  </si>
-  <si>
-    <t>ALIF IMRAN BIN MOHD SYAKIR</t>
-  </si>
-  <si>
-    <t>AMIRRUL AKMAL RAFIE BIN NOR MOHAMAD</t>
-  </si>
-  <si>
-    <t>EDRA ANAQI BIN ROSAZIEMBRAN</t>
-  </si>
-  <si>
-    <t>FARIS ZHARFAN BIN MUHAMMAD</t>
-  </si>
-  <si>
-    <t>HARIPRIYAI A/P JEGATHESAN</t>
-  </si>
-  <si>
-    <t>KARUNESH GOVIND A/L SASIDHARAN</t>
-  </si>
-  <si>
-    <t>MOHAMAD ADHWAQ HAKIM BIN AFENDI</t>
-  </si>
-  <si>
-    <t>MOHD ZAIM MUKHRIZ BIN ABDULLAH</t>
-  </si>
-  <si>
-    <t>MUHAMMAD AIMAN HAZIQ BIN ARIFFIN</t>
-  </si>
-  <si>
-    <t>MUHAMMAD AIMAN SAFWAN BIN MD IZHAM</t>
-  </si>
-  <si>
-    <t>MUHAMMAD AQWA IQBAL BIN MOHD SARMIZI</t>
-  </si>
-  <si>
-    <t>MUHAMMAD AZARUL SYAHID MOHAMMAD AZIRUL</t>
-  </si>
-  <si>
-    <t>MUHAMMAD BAIHAQI BIN KHAIRUL ANWAR</t>
-  </si>
-  <si>
-    <t>MUHAMMAD DANIAL IRFAN BIN MOHD ZAIRIE</t>
-  </si>
-  <si>
-    <t>MUHAMMAD FARID BIN AZMAN</t>
-  </si>
-  <si>
-    <t>MUHAMMAD HAZIQ IQBAL BIN AHMAD RASHIDI</t>
-  </si>
-  <si>
-    <t>MUHAMMAD NU'MAN HAKIMI BIN HAFIZ</t>
-  </si>
-  <si>
-    <t>NIK NADIA NABILA BINTI NIK ISMAIL RASHED</t>
-  </si>
-  <si>
-    <t>NUR 'AIMAN BIN ZULKIFLE</t>
   </si>
   <si>
     <t>ZS02</t>
   </si>
   <si>
-    <t>NUR ALFISHAR BINTI MOHD SALLEH</t>
-  </si>
-  <si>
-    <t>WAN MUHAMMAD NAUFAL BIN WAN MOHD ROSANUAR</t>
-  </si>
-  <si>
-    <t>ZAINAL NUR NABIL BIN ZAINAL</t>
-  </si>
-  <si>
-    <t>ADAM NABIL BIN NIZAM</t>
-  </si>
-  <si>
     <t>ZP65</t>
-  </si>
-  <si>
-    <t>AFDAL MUHAMMAD ILHAN BIN AFDAL IZAL</t>
-  </si>
-  <si>
-    <t>AHMAD AFIQ FAIQ FARID IZUAN</t>
-  </si>
-  <si>
-    <t>IAN IZHAM BIN BADRUL IZHAM</t>
-  </si>
-  <si>
-    <t>ISHQHA QHASH-RYNAUGH QHASH-REIGH</t>
-  </si>
-  <si>
-    <t>JESSE RAYES ANAK RAMUYAN</t>
-  </si>
-  <si>
-    <t>MOHAMAD RAFIQ HARIRIE BIN MOHAMAD ROSNIZAM</t>
-  </si>
-  <si>
-    <t>MUHAMMAD ABID AFNAN BIN MOHD JASNI</t>
-  </si>
-  <si>
-    <t>MUHAMMAD AMIRUL HAKIMI BIN AINAL YUSRI</t>
-  </si>
-  <si>
-    <t>MUHAMMAD HAIKAL BIN ASMAWI</t>
-  </si>
-  <si>
-    <t>MUHAMMAD HAZIQ FITRI BIN MOHD ZAINUDDIN</t>
-  </si>
-  <si>
-    <t>NAZIFINAZIM BIN ANUAR</t>
-  </si>
-  <si>
-    <t>PURVANESH A/L RAMESH</t>
-  </si>
-  <si>
-    <t>SARAH NURASHIKIN BINTI AHMAD SHUHAIRI</t>
-  </si>
-  <si>
-    <t>SHEIKH ALWAZIR BIN ABD RAHMAN</t>
-  </si>
-  <si>
-    <t>SYED MUHAMMAD IHSAN BIN SYED IDRUS</t>
-  </si>
-  <si>
-    <t>CHE MUHAMMAD AMMAR AMANI BIN CIK MUHAMMAD SARDI</t>
   </si>
   <si>
     <t>ZB03</t>
   </si>
   <si>
-    <t>FATIN FARISYA LIYANA BINTI SOBERI</t>
-  </si>
-  <si>
-    <t>MUHAMMAD IRFAN HAZIQ BIN AZMAN</t>
-  </si>
-  <si>
-    <t>MUHAMMAD SYUKRAN HAZIQ BIN SUPIAN</t>
-  </si>
-  <si>
-    <t>NURUL SYAZWANI BINTI HAMZAN</t>
-  </si>
-  <si>
-    <t>SYED MUHAMAD AKHTAR BIN SYED KAMARUZAMAN</t>
-  </si>
-  <si>
-    <t>AMIRA MARYAM AZ-ZAHRA BINTI MOHD UZER</t>
-  </si>
-  <si>
     <t>ZM00</t>
-  </si>
-  <si>
-    <t>AKALIL AZIZ BIN HAFIZ ISKANDAR</t>
-  </si>
-  <si>
-    <t>JAYDEN LEONG JIN CHERN</t>
-  </si>
-  <si>
-    <t>PRAVEENA A/P SUBRAMANIAM</t>
   </si>
 </sst>
 </file>
@@ -1104,7 +201,7 @@
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>7</v>
@@ -1124,10 +221,10 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>4.0</v>
@@ -1144,10 +241,10 @@
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>4.0</v>
@@ -1164,10 +261,10 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.5</v>
@@ -1184,10 +281,10 @@
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.5</v>
@@ -1204,10 +301,10 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.5</v>
@@ -1224,10 +321,10 @@
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>4.0</v>
@@ -1244,10 +341,10 @@
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>4.0</v>
@@ -1264,10 +361,10 @@
     </row>
     <row r="11">
       <c r="A11" s="4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.5</v>
@@ -1284,10 +381,10 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>4.0</v>
@@ -1304,10 +401,10 @@
     </row>
     <row r="13">
       <c r="A13" s="4" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.0</v>
@@ -1324,10 +421,10 @@
     </row>
     <row r="14">
       <c r="A14" s="4" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.5</v>
@@ -1344,10 +441,10 @@
     </row>
     <row r="15">
       <c r="A15" s="4" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.5</v>
@@ -1364,10 +461,10 @@
     </row>
     <row r="16">
       <c r="A16" s="4" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>4.0</v>
@@ -1384,10 +481,10 @@
     </row>
     <row r="17">
       <c r="A17" s="4" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.5</v>
@@ -1404,10 +501,10 @@
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>4.0</v>
@@ -1424,10 +521,10 @@
     </row>
     <row r="19">
       <c r="A19" s="4" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>4.0</v>
@@ -1444,10 +541,10 @@
     </row>
     <row r="20">
       <c r="A20" s="4" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>4.5</v>
@@ -1464,10 +561,10 @@
     </row>
     <row r="21">
       <c r="A21" s="4" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.5</v>
@@ -1484,10 +581,10 @@
     </row>
     <row r="22">
       <c r="A22" s="4" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>4.0</v>
@@ -1504,10 +601,10 @@
     </row>
     <row r="23">
       <c r="A23" s="4" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>4.0</v>
@@ -1524,10 +621,10 @@
     </row>
     <row r="24">
       <c r="A24" s="4" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.5</v>
@@ -1544,10 +641,10 @@
     </row>
     <row r="25">
       <c r="A25" s="4" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>4.0</v>
@@ -1564,10 +661,10 @@
     </row>
     <row r="26">
       <c r="A26" s="4" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>4.0</v>
@@ -1584,10 +681,10 @@
     </row>
     <row r="27">
       <c r="A27" s="4" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.5</v>
@@ -1604,10 +701,10 @@
     </row>
     <row r="28">
       <c r="A28" s="4" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.0</v>
@@ -1624,10 +721,10 @@
     </row>
     <row r="29">
       <c r="A29" s="4" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>4.0</v>
@@ -1644,10 +741,10 @@
     </row>
     <row r="30">
       <c r="A30" s="4" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.5</v>
@@ -1664,10 +761,10 @@
     </row>
     <row r="31">
       <c r="A31" s="4" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.5</v>
@@ -1684,10 +781,10 @@
     </row>
     <row r="32">
       <c r="A32" s="4" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.5</v>
@@ -1704,10 +801,10 @@
     </row>
     <row r="33">
       <c r="A33" s="4" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>4.0</v>
@@ -1724,10 +821,10 @@
     </row>
     <row r="34">
       <c r="A34" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.5</v>
@@ -1744,10 +841,10 @@
     </row>
     <row r="35">
       <c r="A35" s="4" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>4.0</v>
@@ -1764,10 +861,10 @@
     </row>
     <row r="36">
       <c r="A36" s="4" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.0</v>
@@ -1784,10 +881,10 @@
     </row>
     <row r="37">
       <c r="A37" s="4" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>4.0</v>
@@ -1804,10 +901,10 @@
     </row>
     <row r="38">
       <c r="A38" s="4" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.5</v>
@@ -1824,10 +921,10 @@
     </row>
     <row r="39">
       <c r="A39" s="4" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>4.0</v>
@@ -1844,10 +941,10 @@
     </row>
     <row r="40">
       <c r="A40" s="4" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.5</v>
@@ -1864,10 +961,10 @@
     </row>
     <row r="41">
       <c r="A41" s="4" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>4.0</v>
@@ -1884,10 +981,10 @@
     </row>
     <row r="42">
       <c r="A42" s="4" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>4.0</v>
@@ -1904,10 +1001,10 @@
     </row>
     <row r="43">
       <c r="A43" s="4" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.5</v>
@@ -1924,10 +1021,10 @@
     </row>
     <row r="44">
       <c r="A44" s="4" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.5</v>
@@ -1944,10 +1041,10 @@
     </row>
     <row r="45">
       <c r="A45" s="4" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.5</v>
@@ -1964,10 +1061,10 @@
     </row>
     <row r="46">
       <c r="A46" s="4" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.5</v>
@@ -1984,10 +1081,10 @@
     </row>
     <row r="47">
       <c r="A47" s="4" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>4.0</v>
@@ -2004,10 +1101,10 @@
     </row>
     <row r="48">
       <c r="A48" s="4" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.5</v>
@@ -2024,10 +1121,10 @@
     </row>
     <row r="49">
       <c r="A49" s="4" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>4.0</v>
@@ -2044,10 +1141,10 @@
     </row>
     <row r="50">
       <c r="A50" s="4" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>4.0</v>
@@ -2064,10 +1161,10 @@
     </row>
     <row r="51">
       <c r="A51" s="4" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.5</v>
@@ -2084,10 +1181,10 @@
     </row>
     <row r="52">
       <c r="A52" s="4" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>4.0</v>
@@ -2104,10 +1201,10 @@
     </row>
     <row r="53">
       <c r="A53" s="4" t="s">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>4.5</v>
@@ -2124,10 +1221,10 @@
     </row>
     <row r="54">
       <c r="A54" s="4" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.5</v>
@@ -2144,10 +1241,10 @@
     </row>
     <row r="55">
       <c r="A55" s="4" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.5</v>
@@ -2164,10 +1261,10 @@
     </row>
     <row r="56">
       <c r="A56" s="4" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>4.0</v>
@@ -2184,10 +1281,10 @@
     </row>
     <row r="57">
       <c r="A57" s="4" t="s">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.5</v>
@@ -2204,10 +1301,10 @@
     </row>
     <row r="58">
       <c r="A58" s="4" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.5</v>
@@ -2224,10 +1321,10 @@
     </row>
     <row r="59">
       <c r="A59" s="4" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>4.0</v>
@@ -2244,10 +1341,10 @@
     </row>
     <row r="60">
       <c r="A60" s="4" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>4.0</v>
@@ -2264,10 +1361,10 @@
     </row>
     <row r="61">
       <c r="A61" s="4" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>4.5</v>
@@ -2284,10 +1381,10 @@
     </row>
     <row r="62">
       <c r="A62" s="4" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.5</v>
@@ -2304,10 +1401,10 @@
     </row>
     <row r="63">
       <c r="A63" s="4" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>75</v>
+        <v>7</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>4.0</v>
@@ -2324,10 +1421,10 @@
     </row>
     <row r="64">
       <c r="A64" s="4" t="s">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>75</v>
+        <v>7</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>4.0</v>
@@ -2344,10 +1441,10 @@
     </row>
     <row r="65">
       <c r="A65" s="4" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>75</v>
+        <v>7</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>4.0</v>
@@ -2364,10 +1461,10 @@
     </row>
     <row r="66">
       <c r="A66" s="4" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>75</v>
+        <v>7</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>5.0</v>
@@ -2384,10 +1481,10 @@
     </row>
     <row r="67">
       <c r="A67" s="4" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>75</v>
+        <v>7</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>4.0</v>
@@ -2404,10 +1501,10 @@
     </row>
     <row r="68">
       <c r="A68" s="4" t="s">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>75</v>
+        <v>7</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.5</v>
@@ -2424,10 +1521,10 @@
     </row>
     <row r="69">
       <c r="A69" s="4" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>75</v>
+        <v>7</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.5</v>
@@ -2444,10 +1541,10 @@
     </row>
     <row r="70">
       <c r="A70" s="4" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>75</v>
+        <v>7</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>4.5</v>
@@ -2464,10 +1561,10 @@
     </row>
     <row r="71">
       <c r="A71" s="4" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>75</v>
+        <v>7</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.5</v>
@@ -2484,10 +1581,10 @@
     </row>
     <row r="72">
       <c r="A72" s="4" t="s">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>75</v>
+        <v>7</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>4.0</v>
@@ -2504,10 +1601,10 @@
     </row>
     <row r="73">
       <c r="A73" s="4" t="s">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>75</v>
+        <v>7</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>4.5</v>
@@ -2524,10 +1621,10 @@
     </row>
     <row r="74">
       <c r="A74" s="4" t="s">
-        <v>86</v>
+        <v>14</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>75</v>
+        <v>7</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.5</v>
@@ -2544,10 +1641,10 @@
     </row>
     <row r="75">
       <c r="A75" s="4" t="s">
-        <v>87</v>
+        <v>11</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.5</v>
@@ -2564,10 +1661,10 @@
     </row>
     <row r="76">
       <c r="A76" s="4" t="s">
-        <v>88</v>
+        <v>11</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.5</v>
@@ -2584,10 +1681,10 @@
     </row>
     <row r="77">
       <c r="A77" s="4" t="s">
-        <v>89</v>
+        <v>11</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.5</v>
@@ -2604,10 +1701,10 @@
     </row>
     <row r="78">
       <c r="A78" s="4" t="s">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>4.5</v>
@@ -2624,10 +1721,10 @@
     </row>
     <row r="79">
       <c r="A79" s="4" t="s">
-        <v>91</v>
+        <v>11</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>4.0</v>
@@ -2644,10 +1741,10 @@
     </row>
     <row r="80">
       <c r="A80" s="4" t="s">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>4.0</v>
@@ -2664,10 +1761,10 @@
     </row>
     <row r="81">
       <c r="A81" s="4" t="s">
-        <v>93</v>
+        <v>11</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>3.5</v>
@@ -2684,10 +1781,10 @@
     </row>
     <row r="82">
       <c r="A82" s="4" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>4.0</v>
@@ -2704,10 +1801,10 @@
     </row>
     <row r="83">
       <c r="A83" s="4" t="s">
-        <v>95</v>
+        <v>11</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>3.5</v>
@@ -2724,10 +1821,10 @@
     </row>
     <row r="84">
       <c r="A84" s="4" t="s">
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>4.0</v>
@@ -2744,10 +1841,10 @@
     </row>
     <row r="85">
       <c r="A85" s="4" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>4.0</v>
@@ -2764,10 +1861,10 @@
     </row>
     <row r="86">
       <c r="A86" s="4" t="s">
-        <v>98</v>
+        <v>11</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>3.5</v>
@@ -2784,10 +1881,10 @@
     </row>
     <row r="87">
       <c r="A87" s="4" t="s">
-        <v>99</v>
+        <v>11</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>4.0</v>
@@ -2804,10 +1901,10 @@
     </row>
     <row r="88">
       <c r="A88" s="4" t="s">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>4.0</v>
@@ -2824,10 +1921,10 @@
     </row>
     <row r="89">
       <c r="A89" s="4" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>102</v>
+        <v>7</v>
       </c>
       <c r="C89" s="2" t="n">
         <v>3.5</v>
@@ -2844,10 +1941,10 @@
     </row>
     <row r="90">
       <c r="A90" s="4" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>102</v>
+        <v>7</v>
       </c>
       <c r="C90" s="2" t="n">
         <v>3.0</v>
@@ -2864,10 +1961,10 @@
     </row>
     <row r="91">
       <c r="A91" s="4" t="s">
-        <v>104</v>
+        <v>15</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>102</v>
+        <v>7</v>
       </c>
       <c r="C91" s="2" t="n">
         <v>3.0</v>
@@ -2884,10 +1981,10 @@
     </row>
     <row r="92">
       <c r="A92" s="4" t="s">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>106</v>
+        <v>7</v>
       </c>
       <c r="C92" s="2" t="n">
         <v>4.0</v>
@@ -2904,10 +2001,10 @@
     </row>
     <row r="93">
       <c r="A93" s="4" t="s">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>106</v>
+        <v>7</v>
       </c>
       <c r="C93" s="2" t="n">
         <v>3.5</v>
@@ -2924,10 +2021,10 @@
     </row>
     <row r="94">
       <c r="A94" s="4" t="s">
-        <v>108</v>
+        <v>16</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>106</v>
+        <v>7</v>
       </c>
       <c r="C94" s="2" t="n">
         <v>4.0</v>
@@ -2944,10 +2041,10 @@
     </row>
     <row r="95">
       <c r="A95" s="4" t="s">
-        <v>109</v>
+        <v>16</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>106</v>
+        <v>7</v>
       </c>
       <c r="C95" s="2" t="n">
         <v>3.5</v>
@@ -2964,10 +2061,10 @@
     </row>
     <row r="96">
       <c r="A96" s="4" t="s">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>106</v>
+        <v>7</v>
       </c>
       <c r="C96" s="2" t="n">
         <v>3.5</v>
@@ -2984,10 +2081,10 @@
     </row>
     <row r="97">
       <c r="A97" s="4" t="s">
-        <v>111</v>
+        <v>16</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>106</v>
+        <v>7</v>
       </c>
       <c r="C97" s="2" t="n">
         <v>3.5</v>
@@ -3004,10 +2101,10 @@
     </row>
     <row r="98">
       <c r="A98" s="4" t="s">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>106</v>
+        <v>7</v>
       </c>
       <c r="C98" s="2" t="n">
         <v>3.5</v>
@@ -3024,10 +2121,10 @@
     </row>
     <row r="99">
       <c r="A99" s="4" t="s">
-        <v>113</v>
+        <v>16</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>106</v>
+        <v>7</v>
       </c>
       <c r="C99" s="2" t="n">
         <v>3.5</v>
@@ -3044,10 +2141,10 @@
     </row>
     <row r="100">
       <c r="A100" s="4" t="s">
-        <v>114</v>
+        <v>16</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>106</v>
+        <v>7</v>
       </c>
       <c r="C100" s="2" t="n">
         <v>3.5</v>
@@ -3064,10 +2161,10 @@
     </row>
     <row r="101">
       <c r="A101" s="4" t="s">
-        <v>115</v>
+        <v>16</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>106</v>
+        <v>7</v>
       </c>
       <c r="C101" s="2" t="n">
         <v>3.0</v>
@@ -3084,10 +2181,10 @@
     </row>
     <row r="102">
       <c r="A102" s="4" t="s">
-        <v>116</v>
+        <v>16</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>106</v>
+        <v>7</v>
       </c>
       <c r="C102" s="2" t="n">
         <v>3.5</v>
@@ -3104,10 +2201,10 @@
     </row>
     <row r="103">
       <c r="A103" s="4" t="s">
-        <v>117</v>
+        <v>16</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>106</v>
+        <v>7</v>
       </c>
       <c r="C103" s="2" t="n">
         <v>4.0</v>
@@ -3124,10 +2221,10 @@
     </row>
     <row r="104">
       <c r="A104" s="4" t="s">
-        <v>118</v>
+        <v>17</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>119</v>
+        <v>7</v>
       </c>
       <c r="C104" s="2" t="n">
         <v>4.0</v>
@@ -3144,10 +2241,10 @@
     </row>
     <row r="105">
       <c r="A105" s="4" t="s">
-        <v>120</v>
+        <v>17</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>119</v>
+        <v>7</v>
       </c>
       <c r="C105" s="2" t="n">
         <v>3.5</v>
@@ -3164,10 +2261,10 @@
     </row>
     <row r="106">
       <c r="A106" s="4" t="s">
-        <v>121</v>
+        <v>17</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>119</v>
+        <v>7</v>
       </c>
       <c r="C106" s="2" t="n">
         <v>3.5</v>
@@ -3184,10 +2281,10 @@
     </row>
     <row r="107">
       <c r="A107" s="4" t="s">
-        <v>122</v>
+        <v>17</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>119</v>
+        <v>7</v>
       </c>
       <c r="C107" s="2" t="n">
         <v>3.0</v>
@@ -3200,10 +2297,10 @@
     </row>
     <row r="108">
       <c r="A108" s="4" t="s">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>119</v>
+        <v>7</v>
       </c>
       <c r="C108" s="2" t="n">
         <v>3.5</v>
@@ -3220,10 +2317,10 @@
     </row>
     <row r="109">
       <c r="A109" s="4" t="s">
-        <v>124</v>
+        <v>17</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>119</v>
+        <v>7</v>
       </c>
       <c r="C109" s="2" t="n">
         <v>3.5</v>
@@ -3240,10 +2337,10 @@
     </row>
     <row r="110">
       <c r="A110" s="4" t="s">
-        <v>125</v>
+        <v>17</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>119</v>
+        <v>7</v>
       </c>
       <c r="C110" s="2" t="n">
         <v>4.0</v>
@@ -3260,10 +2357,10 @@
     </row>
     <row r="111">
       <c r="A111" s="4" t="s">
-        <v>126</v>
+        <v>17</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>119</v>
+        <v>7</v>
       </c>
       <c r="C111" s="2" t="n">
         <v>4.0</v>
@@ -3280,10 +2377,10 @@
     </row>
     <row r="112">
       <c r="A112" s="4" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>119</v>
+        <v>7</v>
       </c>
       <c r="C112" s="2" t="n">
         <v>3.5</v>
@@ -3300,10 +2397,10 @@
     </row>
     <row r="113">
       <c r="A113" s="4" t="s">
-        <v>128</v>
+        <v>17</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>119</v>
+        <v>7</v>
       </c>
       <c r="C113" s="2" t="n">
         <v>3.5</v>
@@ -3320,10 +2417,10 @@
     </row>
     <row r="114">
       <c r="A114" s="4" t="s">
-        <v>129</v>
+        <v>17</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>119</v>
+        <v>7</v>
       </c>
       <c r="C114" s="2" t="n">
         <v>3.5</v>
@@ -3340,10 +2437,10 @@
     </row>
     <row r="115">
       <c r="A115" s="4" t="s">
-        <v>130</v>
+        <v>17</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>119</v>
+        <v>7</v>
       </c>
       <c r="C115" s="2" t="n">
         <v>4.0</v>
@@ -3360,10 +2457,10 @@
     </row>
     <row r="116">
       <c r="A116" s="4" t="s">
-        <v>131</v>
+        <v>17</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>119</v>
+        <v>7</v>
       </c>
       <c r="C116" s="2" t="n">
         <v>3.0</v>
@@ -3380,10 +2477,10 @@
     </row>
     <row r="117">
       <c r="A117" s="4" t="s">
-        <v>132</v>
+        <v>17</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>119</v>
+        <v>7</v>
       </c>
       <c r="C117" s="2" t="n">
         <v>3.0</v>
@@ -3400,10 +2497,10 @@
     </row>
     <row r="118">
       <c r="A118" s="4" t="s">
-        <v>133</v>
+        <v>17</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>119</v>
+        <v>7</v>
       </c>
       <c r="C118" s="2" t="n">
         <v>3.5</v>
@@ -3420,10 +2517,10 @@
     </row>
     <row r="119">
       <c r="A119" s="4" t="s">
-        <v>134</v>
+        <v>17</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>119</v>
+        <v>7</v>
       </c>
       <c r="C119" s="2" t="n">
         <v>4.0</v>
@@ -3440,10 +2537,10 @@
     </row>
     <row r="120">
       <c r="A120" s="4" t="s">
-        <v>135</v>
+        <v>17</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>119</v>
+        <v>7</v>
       </c>
       <c r="C120" s="2" t="n">
         <v>3.5</v>
@@ -3460,10 +2557,10 @@
     </row>
     <row r="121">
       <c r="A121" s="4" t="s">
-        <v>136</v>
+        <v>17</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>119</v>
+        <v>7</v>
       </c>
       <c r="C121" s="2" t="n">
         <v>3.5</v>
@@ -3480,10 +2577,10 @@
     </row>
     <row r="122">
       <c r="A122" s="4" t="s">
-        <v>137</v>
+        <v>17</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>119</v>
+        <v>7</v>
       </c>
       <c r="C122" s="2" t="n">
         <v>3.5</v>
@@ -3500,10 +2597,10 @@
     </row>
     <row r="123">
       <c r="A123" s="4" t="s">
-        <v>138</v>
+        <v>17</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>119</v>
+        <v>7</v>
       </c>
       <c r="C123" s="2" t="n">
         <v>3.5</v>
@@ -3520,10 +2617,10 @@
     </row>
     <row r="124">
       <c r="A124" s="4" t="s">
-        <v>139</v>
+        <v>17</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>119</v>
+        <v>7</v>
       </c>
       <c r="C124" s="2" t="n">
         <v>3.5</v>
@@ -3540,10 +2637,10 @@
     </row>
     <row r="125">
       <c r="A125" s="4" t="s">
-        <v>140</v>
+        <v>17</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>119</v>
+        <v>7</v>
       </c>
       <c r="C125" s="2" t="n">
         <v>3.5</v>
@@ -3560,10 +2657,10 @@
     </row>
     <row r="126">
       <c r="A126" s="4" t="s">
-        <v>141</v>
+        <v>17</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>119</v>
+        <v>7</v>
       </c>
       <c r="C126" s="2" t="n">
         <v>3.5</v>
@@ -3580,10 +2677,10 @@
     </row>
     <row r="127">
       <c r="A127" s="4" t="s">
-        <v>142</v>
+        <v>17</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>119</v>
+        <v>7</v>
       </c>
       <c r="C127" s="2" t="n">
         <v>3.5</v>
@@ -3600,10 +2697,10 @@
     </row>
     <row r="128">
       <c r="A128" s="4" t="s">
-        <v>143</v>
+        <v>17</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>119</v>
+        <v>7</v>
       </c>
       <c r="C128" s="2" t="n">
         <v>3.5</v>
@@ -3620,10 +2717,10 @@
     </row>
     <row r="129">
       <c r="A129" s="4" t="s">
-        <v>144</v>
+        <v>17</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>119</v>
+        <v>7</v>
       </c>
       <c r="C129" s="2" t="n">
         <v>3.5</v>
@@ -3640,10 +2737,10 @@
     </row>
     <row r="130">
       <c r="A130" s="4" t="s">
-        <v>145</v>
+        <v>17</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>119</v>
+        <v>7</v>
       </c>
       <c r="C130" s="2" t="n">
         <v>3.5</v>
@@ -3660,10 +2757,10 @@
     </row>
     <row r="131">
       <c r="A131" s="4" t="s">
-        <v>146</v>
+        <v>17</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>119</v>
+        <v>7</v>
       </c>
       <c r="C131" s="2" t="n">
         <v>3.5</v>
@@ -3680,10 +2777,10 @@
     </row>
     <row r="132">
       <c r="A132" s="4" t="s">
-        <v>147</v>
+        <v>17</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>119</v>
+        <v>7</v>
       </c>
       <c r="C132" s="2" t="n">
         <v>3.5</v>
@@ -3700,10 +2797,10 @@
     </row>
     <row r="133">
       <c r="A133" s="4" t="s">
-        <v>148</v>
+        <v>17</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>119</v>
+        <v>7</v>
       </c>
       <c r="C133" s="2" t="n">
         <v>3.0</v>
@@ -3720,10 +2817,10 @@
     </row>
     <row r="134">
       <c r="A134" s="4" t="s">
-        <v>149</v>
+        <v>17</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>119</v>
+        <v>7</v>
       </c>
       <c r="C134" s="2" t="n">
         <v>3.0</v>
@@ -3736,10 +2833,10 @@
     </row>
     <row r="135">
       <c r="A135" s="4" t="s">
-        <v>150</v>
+        <v>17</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>119</v>
+        <v>7</v>
       </c>
       <c r="C135" s="2" t="n">
         <v>3.5</v>
@@ -3756,10 +2853,10 @@
     </row>
     <row r="136">
       <c r="A136" s="4" t="s">
-        <v>151</v>
+        <v>17</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>119</v>
+        <v>7</v>
       </c>
       <c r="C136" s="2" t="n">
         <v>3.5</v>
@@ -3776,10 +2873,10 @@
     </row>
     <row r="137">
       <c r="A137" s="4" t="s">
-        <v>152</v>
+        <v>17</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>119</v>
+        <v>7</v>
       </c>
       <c r="C137" s="2" t="n">
         <v>3.5</v>
@@ -3796,10 +2893,10 @@
     </row>
     <row r="138">
       <c r="A138" s="4" t="s">
-        <v>153</v>
+        <v>17</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>119</v>
+        <v>7</v>
       </c>
       <c r="C138" s="2" t="n">
         <v>3.5</v>
@@ -3816,10 +2913,10 @@
     </row>
     <row r="139">
       <c r="A139" s="4" t="s">
-        <v>154</v>
+        <v>17</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>119</v>
+        <v>7</v>
       </c>
       <c r="C139" s="2" t="n">
         <v>4.0</v>
@@ -3836,10 +2933,10 @@
     </row>
     <row r="140">
       <c r="A140" s="4" t="s">
-        <v>155</v>
+        <v>17</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>119</v>
+        <v>7</v>
       </c>
       <c r="C140" s="2" t="n">
         <v>3.5</v>
@@ -3856,10 +2953,10 @@
     </row>
     <row r="141">
       <c r="A141" s="4" t="s">
-        <v>156</v>
+        <v>17</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>119</v>
+        <v>7</v>
       </c>
       <c r="C141" s="2" t="n">
         <v>3.0</v>
@@ -3876,10 +2973,10 @@
     </row>
     <row r="142">
       <c r="A142" s="4" t="s">
-        <v>157</v>
+        <v>17</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>119</v>
+        <v>7</v>
       </c>
       <c r="C142" s="2" t="n">
         <v>3.5</v>
@@ -3896,10 +2993,10 @@
     </row>
     <row r="143">
       <c r="A143" s="4" t="s">
-        <v>158</v>
+        <v>17</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>119</v>
+        <v>7</v>
       </c>
       <c r="C143" s="2" t="n">
         <v>3.5</v>
@@ -3916,10 +3013,10 @@
     </row>
     <row r="144">
       <c r="A144" s="4" t="s">
-        <v>159</v>
+        <v>17</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>119</v>
+        <v>7</v>
       </c>
       <c r="C144" s="2" t="n">
         <v>3.5</v>
@@ -3936,10 +3033,10 @@
     </row>
     <row r="145">
       <c r="A145" s="4" t="s">
-        <v>160</v>
+        <v>17</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>119</v>
+        <v>7</v>
       </c>
       <c r="C145" s="2" t="n">
         <v>3.5</v>
@@ -3956,10 +3053,10 @@
     </row>
     <row r="146">
       <c r="A146" s="4" t="s">
-        <v>161</v>
+        <v>17</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>119</v>
+        <v>7</v>
       </c>
       <c r="C146" s="2" t="n">
         <v>3.5</v>
@@ -3976,10 +3073,10 @@
     </row>
     <row r="147">
       <c r="A147" s="4" t="s">
-        <v>162</v>
+        <v>17</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>119</v>
+        <v>7</v>
       </c>
       <c r="C147" s="2" t="n">
         <v>3.5</v>
@@ -3996,10 +3093,10 @@
     </row>
     <row r="148">
       <c r="A148" s="4" t="s">
-        <v>163</v>
+        <v>17</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>119</v>
+        <v>7</v>
       </c>
       <c r="C148" s="2" t="n">
         <v>3.0</v>
@@ -4016,10 +3113,10 @@
     </row>
     <row r="149">
       <c r="A149" s="4" t="s">
-        <v>164</v>
+        <v>17</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>119</v>
+        <v>7</v>
       </c>
       <c r="C149" s="2" t="n">
         <v>4.0</v>
@@ -4036,10 +3133,10 @@
     </row>
     <row r="150">
       <c r="A150" s="4" t="s">
-        <v>165</v>
+        <v>17</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>119</v>
+        <v>7</v>
       </c>
       <c r="C150" s="2" t="n">
         <v>3.5</v>
@@ -4056,10 +3153,10 @@
     </row>
     <row r="151">
       <c r="A151" s="4" t="s">
-        <v>166</v>
+        <v>17</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>119</v>
+        <v>7</v>
       </c>
       <c r="C151" s="2" t="n">
         <v>3.5</v>
@@ -4072,10 +3169,10 @@
     </row>
     <row r="152">
       <c r="A152" s="4" t="s">
-        <v>167</v>
+        <v>17</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>119</v>
+        <v>7</v>
       </c>
       <c r="C152" s="2" t="n">
         <v>3.5</v>
@@ -4092,10 +3189,10 @@
     </row>
     <row r="153">
       <c r="A153" s="4" t="s">
-        <v>168</v>
+        <v>17</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>119</v>
+        <v>7</v>
       </c>
       <c r="C153" s="2" t="n">
         <v>3.5</v>
@@ -4112,10 +3209,10 @@
     </row>
     <row r="154">
       <c r="A154" s="4" t="s">
-        <v>169</v>
+        <v>17</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>119</v>
+        <v>7</v>
       </c>
       <c r="C154" s="2" t="n">
         <v>3.5</v>
@@ -4132,10 +3229,10 @@
     </row>
     <row r="155">
       <c r="A155" s="4" t="s">
-        <v>170</v>
+        <v>17</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>119</v>
+        <v>7</v>
       </c>
       <c r="C155" s="2" t="n">
         <v>4.0</v>
@@ -4152,10 +3249,10 @@
     </row>
     <row r="156">
       <c r="A156" s="4" t="s">
-        <v>171</v>
+        <v>17</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>119</v>
+        <v>7</v>
       </c>
       <c r="C156" s="2" t="n">
         <v>4.0</v>
@@ -4172,10 +3269,10 @@
     </row>
     <row r="157">
       <c r="A157" s="4" t="s">
-        <v>172</v>
+        <v>17</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>119</v>
+        <v>7</v>
       </c>
       <c r="C157" s="2" t="n">
         <v>3.5</v>
@@ -4192,10 +3289,10 @@
     </row>
     <row r="158">
       <c r="A158" s="4" t="s">
-        <v>173</v>
+        <v>17</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>119</v>
+        <v>18</v>
       </c>
       <c r="C158"/>
       <c r="D158" s="2" t="n">
@@ -4210,10 +3307,10 @@
     </row>
     <row r="159">
       <c r="A159" s="4" t="s">
-        <v>174</v>
+        <v>17</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>119</v>
+        <v>7</v>
       </c>
       <c r="C159" s="2" t="n">
         <v>2.5</v>
@@ -4230,10 +3327,10 @@
     </row>
     <row r="160">
       <c r="A160" s="4" t="s">
-        <v>175</v>
+        <v>17</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>119</v>
+        <v>7</v>
       </c>
       <c r="C160" s="2" t="n">
         <v>3.5</v>
@@ -4250,10 +3347,10 @@
     </row>
     <row r="161">
       <c r="A161" s="4" t="s">
-        <v>176</v>
+        <v>17</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>119</v>
+        <v>7</v>
       </c>
       <c r="C161" s="2" t="n">
         <v>4.0</v>
@@ -4270,10 +3367,10 @@
     </row>
     <row r="162">
       <c r="A162" s="4" t="s">
-        <v>177</v>
+        <v>17</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>119</v>
+        <v>7</v>
       </c>
       <c r="C162" s="2" t="n">
         <v>4.0</v>
@@ -4290,10 +3387,10 @@
     </row>
     <row r="163">
       <c r="A163" s="4" t="s">
-        <v>178</v>
+        <v>17</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>119</v>
+        <v>7</v>
       </c>
       <c r="C163" s="2" t="n">
         <v>3.5</v>
@@ -4310,10 +3407,10 @@
     </row>
     <row r="164">
       <c r="A164" s="4" t="s">
-        <v>179</v>
+        <v>17</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>119</v>
+        <v>18</v>
       </c>
       <c r="C164" s="2" t="n">
         <v>3.5</v>
@@ -4330,10 +3427,10 @@
     </row>
     <row r="165">
       <c r="A165" s="4" t="s">
-        <v>180</v>
+        <v>17</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>119</v>
+        <v>7</v>
       </c>
       <c r="C165" s="2" t="n">
         <v>4.0</v>
@@ -4350,10 +3447,10 @@
     </row>
     <row r="166">
       <c r="A166" s="4" t="s">
-        <v>181</v>
+        <v>17</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>119</v>
+        <v>7</v>
       </c>
       <c r="C166" s="2" t="n">
         <v>3.5</v>
@@ -4370,10 +3467,10 @@
     </row>
     <row r="167">
       <c r="A167" s="4" t="s">
-        <v>182</v>
+        <v>17</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>119</v>
+        <v>7</v>
       </c>
       <c r="C167" s="2" t="n">
         <v>3.5</v>
@@ -4390,10 +3487,10 @@
     </row>
     <row r="168">
       <c r="A168" s="4" t="s">
-        <v>183</v>
+        <v>19</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>184</v>
+        <v>7</v>
       </c>
       <c r="C168" s="2" t="n">
         <v>3.5</v>
@@ -4410,10 +3507,10 @@
     </row>
     <row r="169">
       <c r="A169" s="4" t="s">
-        <v>185</v>
+        <v>19</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>184</v>
+        <v>7</v>
       </c>
       <c r="C169" s="2" t="n">
         <v>3.5</v>
@@ -4430,10 +3527,10 @@
     </row>
     <row r="170">
       <c r="A170" s="4" t="s">
-        <v>186</v>
+        <v>19</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>184</v>
+        <v>7</v>
       </c>
       <c r="C170" s="2" t="n">
         <v>3.0</v>
@@ -4450,10 +3547,10 @@
     </row>
     <row r="171">
       <c r="A171" s="4" t="s">
-        <v>187</v>
+        <v>19</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>184</v>
+        <v>7</v>
       </c>
       <c r="C171" s="2" t="n">
         <v>3.5</v>
@@ -4470,10 +3567,10 @@
     </row>
     <row r="172">
       <c r="A172" s="4" t="s">
-        <v>188</v>
+        <v>19</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>184</v>
+        <v>7</v>
       </c>
       <c r="C172" s="2" t="n">
         <v>3.5</v>
@@ -4490,10 +3587,10 @@
     </row>
     <row r="173">
       <c r="A173" s="4" t="s">
-        <v>189</v>
+        <v>19</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>184</v>
+        <v>7</v>
       </c>
       <c r="C173" s="2" t="n">
         <v>3.5</v>
@@ -4510,10 +3607,10 @@
     </row>
     <row r="174">
       <c r="A174" s="4" t="s">
-        <v>190</v>
+        <v>19</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>184</v>
+        <v>7</v>
       </c>
       <c r="C174" s="2" t="n">
         <v>3.0</v>
@@ -4530,10 +3627,10 @@
     </row>
     <row r="175">
       <c r="A175" s="4" t="s">
-        <v>191</v>
+        <v>19</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>184</v>
+        <v>7</v>
       </c>
       <c r="C175" s="2" t="n">
         <v>3.5</v>
@@ -4550,10 +3647,10 @@
     </row>
     <row r="176">
       <c r="A176" s="4" t="s">
-        <v>192</v>
+        <v>19</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>184</v>
+        <v>7</v>
       </c>
       <c r="C176" s="2" t="n">
         <v>3.5</v>
@@ -4570,10 +3667,10 @@
     </row>
     <row r="177">
       <c r="A177" s="4" t="s">
-        <v>193</v>
+        <v>19</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>184</v>
+        <v>7</v>
       </c>
       <c r="C177" s="2" t="n">
         <v>3.0</v>
@@ -4590,10 +3687,10 @@
     </row>
     <row r="178">
       <c r="A178" s="4" t="s">
-        <v>194</v>
+        <v>19</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>184</v>
+        <v>7</v>
       </c>
       <c r="C178" s="2" t="n">
         <v>2.0</v>
@@ -4610,10 +3707,10 @@
     </row>
     <row r="179">
       <c r="A179" s="4" t="s">
-        <v>195</v>
+        <v>19</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>184</v>
+        <v>18</v>
       </c>
       <c r="C179" s="2" t="n">
         <v>4.0</v>
@@ -4630,10 +3727,10 @@
     </row>
     <row r="180">
       <c r="A180" s="4" t="s">
-        <v>196</v>
+        <v>19</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>184</v>
+        <v>7</v>
       </c>
       <c r="C180" s="2" t="n">
         <v>4.0</v>
@@ -4650,10 +3747,10 @@
     </row>
     <row r="181">
       <c r="A181" s="4" t="s">
-        <v>197</v>
+        <v>19</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>184</v>
+        <v>7</v>
       </c>
       <c r="C181" s="2" t="n">
         <v>3.5</v>
@@ -4670,10 +3767,10 @@
     </row>
     <row r="182">
       <c r="A182" s="4" t="s">
-        <v>198</v>
+        <v>19</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>184</v>
+        <v>7</v>
       </c>
       <c r="C182" s="2" t="n">
         <v>3.5</v>
@@ -4690,10 +3787,10 @@
     </row>
     <row r="183">
       <c r="A183" s="4" t="s">
-        <v>199</v>
+        <v>19</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>184</v>
+        <v>7</v>
       </c>
       <c r="C183" s="2" t="n">
         <v>3.5</v>
@@ -4710,10 +3807,10 @@
     </row>
     <row r="184">
       <c r="A184" s="4" t="s">
-        <v>200</v>
+        <v>19</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>184</v>
+        <v>7</v>
       </c>
       <c r="C184" s="2" t="n">
         <v>4.0</v>
@@ -4730,10 +3827,10 @@
     </row>
     <row r="185">
       <c r="A185" s="4" t="s">
-        <v>201</v>
+        <v>19</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>184</v>
+        <v>7</v>
       </c>
       <c r="C185" s="2" t="n">
         <v>3.5</v>
@@ -4750,10 +3847,10 @@
     </row>
     <row r="186">
       <c r="A186" s="4" t="s">
-        <v>202</v>
+        <v>19</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>184</v>
+        <v>7</v>
       </c>
       <c r="C186" s="2" t="n">
         <v>3.5</v>
@@ -4770,10 +3867,10 @@
     </row>
     <row r="187">
       <c r="A187" s="4" t="s">
-        <v>203</v>
+        <v>19</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>184</v>
+        <v>18</v>
       </c>
       <c r="C187" s="2" t="n">
         <v>3.0</v>
@@ -4790,10 +3887,10 @@
     </row>
     <row r="188">
       <c r="A188" s="4" t="s">
-        <v>204</v>
+        <v>19</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>184</v>
+        <v>18</v>
       </c>
       <c r="C188" s="2" t="n">
         <v>3.5</v>
@@ -4810,10 +3907,10 @@
     </row>
     <row r="189">
       <c r="A189" s="4" t="s">
-        <v>205</v>
+        <v>19</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>184</v>
+        <v>7</v>
       </c>
       <c r="C189" s="2" t="n">
         <v>3.5</v>
@@ -4830,10 +3927,10 @@
     </row>
     <row r="190">
       <c r="A190" s="4" t="s">
-        <v>206</v>
+        <v>19</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>184</v>
+        <v>7</v>
       </c>
       <c r="C190" s="2" t="n">
         <v>3.5</v>
@@ -4850,10 +3947,10 @@
     </row>
     <row r="191">
       <c r="A191" s="4" t="s">
-        <v>207</v>
+        <v>19</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>184</v>
+        <v>7</v>
       </c>
       <c r="C191" s="2" t="n">
         <v>3.5</v>
@@ -4870,10 +3967,10 @@
     </row>
     <row r="192">
       <c r="A192" s="4" t="s">
-        <v>208</v>
+        <v>19</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>184</v>
+        <v>7</v>
       </c>
       <c r="C192" s="2" t="n">
         <v>3.0</v>
@@ -4890,10 +3987,10 @@
     </row>
     <row r="193">
       <c r="A193" s="4" t="s">
-        <v>209</v>
+        <v>19</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>184</v>
+        <v>7</v>
       </c>
       <c r="C193" s="2" t="n">
         <v>3.5</v>
@@ -4910,10 +4007,10 @@
     </row>
     <row r="194">
       <c r="A194" s="4" t="s">
-        <v>210</v>
+        <v>19</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>184</v>
+        <v>7</v>
       </c>
       <c r="C194" s="2" t="n">
         <v>3.0</v>
@@ -4930,10 +4027,10 @@
     </row>
     <row r="195">
       <c r="A195" s="4" t="s">
-        <v>211</v>
+        <v>19</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>184</v>
+        <v>7</v>
       </c>
       <c r="C195" s="2" t="n">
         <v>3.0</v>
@@ -4950,10 +4047,10 @@
     </row>
     <row r="196">
       <c r="A196" s="4" t="s">
-        <v>212</v>
+        <v>19</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>184</v>
+        <v>7</v>
       </c>
       <c r="C196" s="2" t="n">
         <v>3.5</v>
@@ -4966,10 +4063,10 @@
     </row>
     <row r="197">
       <c r="A197" s="4" t="s">
-        <v>213</v>
+        <v>19</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>184</v>
+        <v>18</v>
       </c>
       <c r="C197" s="2" t="n">
         <v>3.0</v>
@@ -4986,10 +4083,10 @@
     </row>
     <row r="198">
       <c r="A198" s="4" t="s">
-        <v>214</v>
+        <v>19</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>184</v>
+        <v>7</v>
       </c>
       <c r="C198" s="2" t="n">
         <v>3.5</v>
@@ -5006,10 +4103,10 @@
     </row>
     <row r="199">
       <c r="A199" s="4" t="s">
-        <v>215</v>
+        <v>19</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>184</v>
+        <v>7</v>
       </c>
       <c r="C199" s="2" t="n">
         <v>3.5</v>
@@ -5026,10 +4123,10 @@
     </row>
     <row r="200">
       <c r="A200" s="4" t="s">
-        <v>216</v>
+        <v>19</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>184</v>
+        <v>7</v>
       </c>
       <c r="C200" s="2" t="n">
         <v>3.0</v>
@@ -5046,10 +4143,10 @@
     </row>
     <row r="201">
       <c r="A201" s="4" t="s">
-        <v>217</v>
+        <v>19</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>184</v>
+        <v>7</v>
       </c>
       <c r="C201" s="2" t="n">
         <v>3.0</v>
@@ -5066,10 +4163,10 @@
     </row>
     <row r="202">
       <c r="A202" s="4" t="s">
-        <v>218</v>
+        <v>19</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>184</v>
+        <v>7</v>
       </c>
       <c r="C202" s="2" t="n">
         <v>3.5</v>
@@ -5086,10 +4183,10 @@
     </row>
     <row r="203">
       <c r="A203" s="4" t="s">
-        <v>219</v>
+        <v>19</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>184</v>
+        <v>7</v>
       </c>
       <c r="C203" s="2" t="n">
         <v>3.5</v>
@@ -5106,10 +4203,10 @@
     </row>
     <row r="204">
       <c r="A204" s="4" t="s">
-        <v>220</v>
+        <v>19</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>184</v>
+        <v>7</v>
       </c>
       <c r="C204" s="2" t="n">
         <v>3.0</v>
@@ -5126,10 +4223,10 @@
     </row>
     <row r="205">
       <c r="A205" s="4" t="s">
-        <v>221</v>
+        <v>19</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>184</v>
+        <v>7</v>
       </c>
       <c r="C205" s="2" t="n">
         <v>3.5</v>
@@ -5146,10 +4243,10 @@
     </row>
     <row r="206">
       <c r="A206" s="4" t="s">
-        <v>222</v>
+        <v>19</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>184</v>
+        <v>7</v>
       </c>
       <c r="C206" s="2" t="n">
         <v>3.5</v>
@@ -5166,10 +4263,10 @@
     </row>
     <row r="207">
       <c r="A207" s="4" t="s">
-        <v>223</v>
+        <v>19</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>184</v>
+        <v>18</v>
       </c>
       <c r="C207" s="2" t="n">
         <v>3.5</v>
@@ -5186,10 +4283,10 @@
     </row>
     <row r="208">
       <c r="A208" s="4" t="s">
-        <v>224</v>
+        <v>19</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>184</v>
+        <v>7</v>
       </c>
       <c r="C208" s="2" t="n">
         <v>3.5</v>
@@ -5206,10 +4303,10 @@
     </row>
     <row r="209">
       <c r="A209" s="4" t="s">
-        <v>225</v>
+        <v>19</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>184</v>
+        <v>7</v>
       </c>
       <c r="C209" s="2" t="n">
         <v>3.5</v>
@@ -5226,10 +4323,10 @@
     </row>
     <row r="210">
       <c r="A210" s="4" t="s">
-        <v>226</v>
+        <v>19</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>184</v>
+        <v>7</v>
       </c>
       <c r="C210" s="2" t="n">
         <v>3.5</v>
@@ -5246,10 +4343,10 @@
     </row>
     <row r="211">
       <c r="A211" s="4" t="s">
-        <v>227</v>
+        <v>20</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>228</v>
+        <v>7</v>
       </c>
       <c r="C211" s="2" t="n">
         <v>3.5</v>
@@ -5266,10 +4363,10 @@
     </row>
     <row r="212">
       <c r="A212" s="4" t="s">
-        <v>229</v>
+        <v>20</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>228</v>
+        <v>7</v>
       </c>
       <c r="C212" s="2" t="n">
         <v>3.5</v>
@@ -5286,10 +4383,10 @@
     </row>
     <row r="213">
       <c r="A213" s="4" t="s">
-        <v>230</v>
+        <v>20</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>228</v>
+        <v>18</v>
       </c>
       <c r="C213" s="2" t="n">
         <v>4.0</v>
@@ -5306,10 +4403,10 @@
     </row>
     <row r="214">
       <c r="A214" s="4" t="s">
-        <v>231</v>
+        <v>20</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>228</v>
+        <v>7</v>
       </c>
       <c r="C214" s="2" t="n">
         <v>3.5</v>
@@ -5326,10 +4423,10 @@
     </row>
     <row r="215">
       <c r="A215" s="4" t="s">
-        <v>232</v>
+        <v>20</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>228</v>
+        <v>7</v>
       </c>
       <c r="C215" s="2" t="n">
         <v>3.5</v>
@@ -5346,10 +4443,10 @@
     </row>
     <row r="216">
       <c r="A216" s="4" t="s">
-        <v>233</v>
+        <v>20</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>228</v>
+        <v>7</v>
       </c>
       <c r="C216" s="2" t="n">
         <v>3.5</v>
@@ -5366,10 +4463,10 @@
     </row>
     <row r="217">
       <c r="A217" s="4" t="s">
-        <v>234</v>
+        <v>20</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>228</v>
+        <v>7</v>
       </c>
       <c r="C217" s="2" t="n">
         <v>3.5</v>
@@ -5386,10 +4483,10 @@
     </row>
     <row r="218">
       <c r="A218" s="4" t="s">
-        <v>235</v>
+        <v>20</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>228</v>
+        <v>7</v>
       </c>
       <c r="C218" s="2" t="n">
         <v>3.5</v>
@@ -5406,10 +4503,10 @@
     </row>
     <row r="219">
       <c r="A219" s="4" t="s">
-        <v>236</v>
+        <v>20</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>228</v>
+        <v>7</v>
       </c>
       <c r="C219" s="2" t="n">
         <v>4.0</v>
@@ -5426,10 +4523,10 @@
     </row>
     <row r="220">
       <c r="A220" s="4" t="s">
-        <v>237</v>
+        <v>20</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>228</v>
+        <v>7</v>
       </c>
       <c r="C220" s="2" t="n">
         <v>4.0</v>
@@ -5446,10 +4543,10 @@
     </row>
     <row r="221">
       <c r="A221" s="4" t="s">
-        <v>238</v>
+        <v>20</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>228</v>
+        <v>7</v>
       </c>
       <c r="C221" s="2" t="n">
         <v>4.0</v>
@@ -5466,10 +4563,10 @@
     </row>
     <row r="222">
       <c r="A222" s="4" t="s">
-        <v>239</v>
+        <v>20</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>228</v>
+        <v>7</v>
       </c>
       <c r="C222" s="2" t="n">
         <v>3.5</v>
@@ -5486,10 +4583,10 @@
     </row>
     <row r="223">
       <c r="A223" s="4" t="s">
-        <v>240</v>
+        <v>20</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>228</v>
+        <v>7</v>
       </c>
       <c r="C223" s="2" t="n">
         <v>3.5</v>
@@ -5506,10 +4603,10 @@
     </row>
     <row r="224">
       <c r="A224" s="4" t="s">
-        <v>241</v>
+        <v>20</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>228</v>
+        <v>7</v>
       </c>
       <c r="C224" s="2" t="n">
         <v>4.0</v>
@@ -5526,10 +4623,10 @@
     </row>
     <row r="225">
       <c r="A225" s="4" t="s">
-        <v>242</v>
+        <v>20</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>228</v>
+        <v>7</v>
       </c>
       <c r="C225" s="2" t="n">
         <v>4.0</v>
@@ -5546,10 +4643,10 @@
     </row>
     <row r="226">
       <c r="A226" s="4" t="s">
-        <v>243</v>
+        <v>20</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>228</v>
+        <v>7</v>
       </c>
       <c r="C226" s="2" t="n">
         <v>3.5</v>
@@ -5566,10 +4663,10 @@
     </row>
     <row r="227">
       <c r="A227" s="4" t="s">
-        <v>244</v>
+        <v>20</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>228</v>
+        <v>7</v>
       </c>
       <c r="C227" s="2" t="n">
         <v>3.5</v>
@@ -5586,10 +4683,10 @@
     </row>
     <row r="228">
       <c r="A228" s="4" t="s">
-        <v>245</v>
+        <v>20</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>228</v>
+        <v>7</v>
       </c>
       <c r="C228" s="2" t="n">
         <v>3.5</v>
@@ -5606,10 +4703,10 @@
     </row>
     <row r="229">
       <c r="A229" s="4" t="s">
-        <v>246</v>
+        <v>20</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>228</v>
+        <v>7</v>
       </c>
       <c r="C229" s="2" t="n">
         <v>3.5</v>
@@ -5626,10 +4723,10 @@
     </row>
     <row r="230">
       <c r="A230" s="4" t="s">
-        <v>247</v>
+        <v>20</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>228</v>
+        <v>7</v>
       </c>
       <c r="C230" s="2" t="n">
         <v>3.5</v>
@@ -5646,10 +4743,10 @@
     </row>
     <row r="231">
       <c r="A231" s="4" t="s">
-        <v>248</v>
+        <v>20</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>228</v>
+        <v>7</v>
       </c>
       <c r="C231" s="2" t="n">
         <v>4.0</v>
@@ -5666,10 +4763,10 @@
     </row>
     <row r="232">
       <c r="A232" s="4" t="s">
-        <v>249</v>
+        <v>20</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>228</v>
+        <v>7</v>
       </c>
       <c r="C232" s="2" t="n">
         <v>4.0</v>
@@ -5686,10 +4783,10 @@
     </row>
     <row r="233">
       <c r="A233" s="4" t="s">
-        <v>250</v>
+        <v>20</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>228</v>
+        <v>7</v>
       </c>
       <c r="C233" s="2" t="n">
         <v>3.5</v>
@@ -5706,10 +4803,10 @@
     </row>
     <row r="234">
       <c r="A234" s="4" t="s">
-        <v>251</v>
+        <v>20</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>228</v>
+        <v>7</v>
       </c>
       <c r="C234" s="2" t="n">
         <v>3.5</v>
@@ -5726,10 +4823,10 @@
     </row>
     <row r="235">
       <c r="A235" s="4" t="s">
-        <v>252</v>
+        <v>20</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>228</v>
+        <v>7</v>
       </c>
       <c r="C235" s="2" t="n">
         <v>3.5</v>
@@ -5746,10 +4843,10 @@
     </row>
     <row r="236">
       <c r="A236" s="4" t="s">
-        <v>253</v>
+        <v>20</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>228</v>
+        <v>7</v>
       </c>
       <c r="C236" s="2" t="n">
         <v>3.5</v>
@@ -5766,10 +4863,10 @@
     </row>
     <row r="237">
       <c r="A237" s="4" t="s">
-        <v>254</v>
+        <v>20</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>228</v>
+        <v>7</v>
       </c>
       <c r="C237" s="2" t="n">
         <v>3.5</v>
@@ -5786,10 +4883,10 @@
     </row>
     <row r="238">
       <c r="A238" s="4" t="s">
-        <v>255</v>
+        <v>20</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>228</v>
+        <v>7</v>
       </c>
       <c r="C238" s="2" t="n">
         <v>4.0</v>
@@ -5806,10 +4903,10 @@
     </row>
     <row r="239">
       <c r="A239" s="4" t="s">
-        <v>256</v>
+        <v>20</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>228</v>
+        <v>7</v>
       </c>
       <c r="C239" s="2" t="n">
         <v>4.0</v>
@@ -5826,10 +4923,10 @@
     </row>
     <row r="240">
       <c r="A240" s="4" t="s">
-        <v>257</v>
+        <v>21</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>258</v>
+        <v>7</v>
       </c>
       <c r="C240" s="2" t="n">
         <v>3.0</v>
@@ -5846,10 +4943,10 @@
     </row>
     <row r="241">
       <c r="A241" s="4" t="s">
-        <v>259</v>
+        <v>21</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>258</v>
+        <v>7</v>
       </c>
       <c r="C241" s="2" t="n">
         <v>3.5</v>
@@ -5866,10 +4963,10 @@
     </row>
     <row r="242">
       <c r="A242" s="4" t="s">
-        <v>260</v>
+        <v>21</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>258</v>
+        <v>7</v>
       </c>
       <c r="C242"/>
       <c r="D242" s="2" t="n">
@@ -5884,10 +4981,10 @@
     </row>
     <row r="243">
       <c r="A243" s="4" t="s">
-        <v>261</v>
+        <v>21</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>258</v>
+        <v>7</v>
       </c>
       <c r="C243" s="2" t="n">
         <v>3.5</v>
@@ -5904,10 +5001,10 @@
     </row>
     <row r="244">
       <c r="A244" s="4" t="s">
-        <v>262</v>
+        <v>21</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>258</v>
+        <v>7</v>
       </c>
       <c r="C244" s="2" t="n">
         <v>3.0</v>
@@ -5924,10 +5021,10 @@
     </row>
     <row r="245">
       <c r="A245" s="4" t="s">
-        <v>263</v>
+        <v>21</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>258</v>
+        <v>7</v>
       </c>
       <c r="C245" s="2" t="n">
         <v>3.5</v>
@@ -5944,10 +5041,10 @@
     </row>
     <row r="246">
       <c r="A246" s="4" t="s">
-        <v>264</v>
+        <v>21</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>258</v>
+        <v>7</v>
       </c>
       <c r="C246" s="2" t="n">
         <v>3.5</v>
@@ -5964,10 +5061,10 @@
     </row>
     <row r="247">
       <c r="A247" s="4" t="s">
-        <v>265</v>
+        <v>21</v>
       </c>
       <c r="B247" s="4" t="s">
-        <v>258</v>
+        <v>7</v>
       </c>
       <c r="C247" s="2" t="n">
         <v>3.0</v>
@@ -5980,10 +5077,10 @@
     </row>
     <row r="248">
       <c r="A248" s="4" t="s">
-        <v>266</v>
+        <v>21</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>258</v>
+        <v>7</v>
       </c>
       <c r="C248" s="2" t="n">
         <v>3.0</v>
@@ -6000,10 +5097,10 @@
     </row>
     <row r="249">
       <c r="A249" s="4" t="s">
-        <v>267</v>
+        <v>21</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>258</v>
+        <v>7</v>
       </c>
       <c r="C249" s="2" t="n">
         <v>3.5</v>
@@ -6020,10 +5117,10 @@
     </row>
     <row r="250">
       <c r="A250" s="4" t="s">
-        <v>268</v>
+        <v>21</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>258</v>
+        <v>7</v>
       </c>
       <c r="C250" s="2" t="n">
         <v>3.5</v>
@@ -6040,10 +5137,10 @@
     </row>
     <row r="251">
       <c r="A251" s="4" t="s">
-        <v>269</v>
+        <v>21</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>258</v>
+        <v>7</v>
       </c>
       <c r="C251" s="2" t="n">
         <v>4.0</v>
@@ -6060,10 +5157,10 @@
     </row>
     <row r="252">
       <c r="A252" s="4" t="s">
-        <v>270</v>
+        <v>21</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>258</v>
+        <v>7</v>
       </c>
       <c r="C252" s="2" t="n">
         <v>3.5</v>
@@ -6080,10 +5177,10 @@
     </row>
     <row r="253">
       <c r="A253" s="4" t="s">
-        <v>271</v>
+        <v>21</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>258</v>
+        <v>7</v>
       </c>
       <c r="C253" s="2" t="n">
         <v>3.5</v>
@@ -6100,10 +5197,10 @@
     </row>
     <row r="254">
       <c r="A254" s="4" t="s">
-        <v>272</v>
+        <v>22</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>273</v>
+        <v>7</v>
       </c>
       <c r="C254" s="2" t="n">
         <v>4.5</v>
@@ -6120,10 +5217,10 @@
     </row>
     <row r="255">
       <c r="A255" s="4" t="s">
-        <v>274</v>
+        <v>22</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>273</v>
+        <v>7</v>
       </c>
       <c r="C255" s="2" t="n">
         <v>3.5</v>
@@ -6140,10 +5237,10 @@
     </row>
     <row r="256">
       <c r="A256" s="4" t="s">
-        <v>275</v>
+        <v>22</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>273</v>
+        <v>7</v>
       </c>
       <c r="C256" s="2" t="n">
         <v>4.0</v>
@@ -6160,10 +5257,10 @@
     </row>
     <row r="257">
       <c r="A257" s="4" t="s">
-        <v>276</v>
+        <v>22</v>
       </c>
       <c r="B257" s="4" t="s">
-        <v>273</v>
+        <v>7</v>
       </c>
       <c r="C257"/>
       <c r="D257" s="2" t="n">
@@ -6178,10 +5275,10 @@
     </row>
     <row r="258">
       <c r="A258" s="4" t="s">
-        <v>277</v>
+        <v>22</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>273</v>
+        <v>7</v>
       </c>
       <c r="C258" s="2" t="n">
         <v>4.0</v>
@@ -6198,10 +5295,10 @@
     </row>
     <row r="259">
       <c r="A259" s="4" t="s">
-        <v>278</v>
+        <v>22</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>273</v>
+        <v>7</v>
       </c>
       <c r="C259" s="2" t="n">
         <v>3.5</v>
@@ -6218,10 +5315,10 @@
     </row>
     <row r="260">
       <c r="A260" s="4" t="s">
-        <v>279</v>
+        <v>22</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>273</v>
+        <v>7</v>
       </c>
       <c r="C260" s="2" t="n">
         <v>3.5</v>
@@ -6238,10 +5335,10 @@
     </row>
     <row r="261">
       <c r="A261" s="4" t="s">
-        <v>280</v>
+        <v>22</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>273</v>
+        <v>7</v>
       </c>
       <c r="C261" s="2" t="n">
         <v>4.5</v>
@@ -6258,10 +5355,10 @@
     </row>
     <row r="262">
       <c r="A262" s="4" t="s">
-        <v>281</v>
+        <v>22</v>
       </c>
       <c r="B262" s="4" t="s">
-        <v>273</v>
+        <v>7</v>
       </c>
       <c r="C262" s="2" t="n">
         <v>4.0</v>
@@ -6278,10 +5375,10 @@
     </row>
     <row r="263">
       <c r="A263" s="4" t="s">
-        <v>282</v>
+        <v>22</v>
       </c>
       <c r="B263" s="4" t="s">
-        <v>273</v>
+        <v>7</v>
       </c>
       <c r="C263" s="2" t="n">
         <v>3.5</v>
@@ -6298,10 +5395,10 @@
     </row>
     <row r="264">
       <c r="A264" s="4" t="s">
-        <v>283</v>
+        <v>22</v>
       </c>
       <c r="B264" s="4" t="s">
-        <v>273</v>
+        <v>7</v>
       </c>
       <c r="C264" s="2" t="n">
         <v>3.5</v>
@@ -6318,10 +5415,10 @@
     </row>
     <row r="265">
       <c r="A265" s="4" t="s">
-        <v>284</v>
+        <v>22</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>273</v>
+        <v>7</v>
       </c>
       <c r="C265" s="2" t="n">
         <v>3.5</v>
@@ -6338,10 +5435,10 @@
     </row>
     <row r="266">
       <c r="A266" s="4" t="s">
-        <v>285</v>
+        <v>22</v>
       </c>
       <c r="B266" s="4" t="s">
-        <v>273</v>
+        <v>7</v>
       </c>
       <c r="C266" s="2" t="n">
         <v>3.5</v>
@@ -6358,10 +5455,10 @@
     </row>
     <row r="267">
       <c r="A267" s="4" t="s">
-        <v>286</v>
+        <v>22</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>273</v>
+        <v>7</v>
       </c>
       <c r="C267" s="2" t="n">
         <v>3.5</v>
@@ -6378,10 +5475,10 @@
     </row>
     <row r="268">
       <c r="A268" s="4" t="s">
-        <v>287</v>
+        <v>22</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>273</v>
+        <v>7</v>
       </c>
       <c r="C268" s="2" t="n">
         <v>4.0</v>
@@ -6398,10 +5495,10 @@
     </row>
     <row r="269">
       <c r="A269" s="4" t="s">
-        <v>288</v>
+        <v>22</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>273</v>
+        <v>7</v>
       </c>
       <c r="C269" s="2" t="n">
         <v>3.5</v>
@@ -6418,10 +5515,10 @@
     </row>
     <row r="270">
       <c r="A270" s="4" t="s">
-        <v>289</v>
+        <v>22</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>273</v>
+        <v>7</v>
       </c>
       <c r="C270" s="2" t="n">
         <v>3.5</v>
@@ -6438,10 +5535,10 @@
     </row>
     <row r="271">
       <c r="A271" s="4" t="s">
-        <v>290</v>
+        <v>22</v>
       </c>
       <c r="B271" s="4" t="s">
-        <v>273</v>
+        <v>7</v>
       </c>
       <c r="C271" s="2" t="n">
         <v>4.0</v>
@@ -6458,10 +5555,10 @@
     </row>
     <row r="272">
       <c r="A272" s="4" t="s">
-        <v>291</v>
+        <v>22</v>
       </c>
       <c r="B272" s="4" t="s">
-        <v>273</v>
+        <v>7</v>
       </c>
       <c r="C272" s="2" t="n">
         <v>3.5</v>
@@ -6478,10 +5575,10 @@
     </row>
     <row r="273">
       <c r="A273" s="4" t="s">
-        <v>292</v>
+        <v>22</v>
       </c>
       <c r="B273" s="4" t="s">
-        <v>273</v>
+        <v>7</v>
       </c>
       <c r="C273" s="2" t="n">
         <v>3.0</v>
@@ -6498,10 +5595,10 @@
     </row>
     <row r="274">
       <c r="A274" s="4" t="s">
-        <v>293</v>
+        <v>22</v>
       </c>
       <c r="B274" s="4" t="s">
-        <v>273</v>
+        <v>7</v>
       </c>
       <c r="C274" s="2" t="n">
         <v>4.0</v>
@@ -6518,10 +5615,10 @@
     </row>
     <row r="275">
       <c r="A275" s="4" t="s">
-        <v>294</v>
+        <v>23</v>
       </c>
       <c r="B275" s="4" t="s">
-        <v>295</v>
+        <v>7</v>
       </c>
       <c r="C275" s="2" t="n">
         <v>3.5</v>
@@ -6538,10 +5635,10 @@
     </row>
     <row r="276">
       <c r="A276" s="4" t="s">
-        <v>296</v>
+        <v>22</v>
       </c>
       <c r="B276" s="4" t="s">
-        <v>273</v>
+        <v>7</v>
       </c>
       <c r="C276" s="2" t="n">
         <v>2.5</v>
@@ -6558,10 +5655,10 @@
     </row>
     <row r="277">
       <c r="A277" s="4" t="s">
-        <v>297</v>
+        <v>22</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>273</v>
+        <v>7</v>
       </c>
       <c r="C277" s="2" t="n">
         <v>4.0</v>
@@ -6578,10 +5675,10 @@
     </row>
     <row r="278">
       <c r="A278" s="4" t="s">
-        <v>298</v>
+        <v>22</v>
       </c>
       <c r="B278" s="4" t="s">
-        <v>273</v>
+        <v>7</v>
       </c>
       <c r="C278" s="2" t="n">
         <v>4.0</v>
@@ -6598,10 +5695,10 @@
     </row>
     <row r="279">
       <c r="A279" s="4" t="s">
-        <v>299</v>
+        <v>24</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>300</v>
+        <v>7</v>
       </c>
       <c r="C279" s="2" t="n">
         <v>4.0</v>
@@ -6618,10 +5715,10 @@
     </row>
     <row r="280">
       <c r="A280" s="4" t="s">
-        <v>301</v>
+        <v>24</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>300</v>
+        <v>7</v>
       </c>
       <c r="C280" s="2" t="n">
         <v>4.0</v>
@@ -6638,10 +5735,10 @@
     </row>
     <row r="281">
       <c r="A281" s="4" t="s">
-        <v>302</v>
+        <v>24</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>300</v>
+        <v>7</v>
       </c>
       <c r="C281" s="2" t="n">
         <v>3.5</v>
@@ -6658,10 +5755,10 @@
     </row>
     <row r="282">
       <c r="A282" s="4" t="s">
-        <v>303</v>
+        <v>24</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>300</v>
+        <v>7</v>
       </c>
       <c r="C282" s="2" t="n">
         <v>4.5</v>
@@ -6678,10 +5775,10 @@
     </row>
     <row r="283">
       <c r="A283" s="4" t="s">
-        <v>304</v>
+        <v>24</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>300</v>
+        <v>7</v>
       </c>
       <c r="C283" s="2" t="n">
         <v>4.0</v>
@@ -6698,10 +5795,10 @@
     </row>
     <row r="284">
       <c r="A284" s="4" t="s">
-        <v>305</v>
+        <v>24</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>300</v>
+        <v>7</v>
       </c>
       <c r="C284" s="2" t="n">
         <v>3.5</v>
@@ -6718,10 +5815,10 @@
     </row>
     <row r="285">
       <c r="A285" s="4" t="s">
-        <v>306</v>
+        <v>24</v>
       </c>
       <c r="B285" s="4" t="s">
-        <v>300</v>
+        <v>7</v>
       </c>
       <c r="C285" s="2" t="n">
         <v>4.0</v>
@@ -6738,10 +5835,10 @@
     </row>
     <row r="286">
       <c r="A286" s="4" t="s">
-        <v>307</v>
+        <v>24</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>300</v>
+        <v>7</v>
       </c>
       <c r="C286" s="2" t="n">
         <v>3.0</v>
@@ -6758,10 +5855,10 @@
     </row>
     <row r="287">
       <c r="A287" s="4" t="s">
-        <v>308</v>
+        <v>24</v>
       </c>
       <c r="B287" s="4" t="s">
-        <v>300</v>
+        <v>7</v>
       </c>
       <c r="C287" s="2" t="n">
         <v>4.0</v>
@@ -6778,10 +5875,10 @@
     </row>
     <row r="288">
       <c r="A288" s="4" t="s">
-        <v>309</v>
+        <v>24</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>300</v>
+        <v>7</v>
       </c>
       <c r="C288" s="2" t="n">
         <v>4.0</v>
@@ -6798,10 +5895,10 @@
     </row>
     <row r="289">
       <c r="A289" s="4" t="s">
-        <v>310</v>
+        <v>24</v>
       </c>
       <c r="B289" s="4" t="s">
-        <v>300</v>
+        <v>7</v>
       </c>
       <c r="C289" s="2" t="n">
         <v>4.0</v>
@@ -6818,10 +5915,10 @@
     </row>
     <row r="290">
       <c r="A290" s="4" t="s">
-        <v>311</v>
+        <v>24</v>
       </c>
       <c r="B290" s="4" t="s">
-        <v>300</v>
+        <v>7</v>
       </c>
       <c r="C290" s="2" t="n">
         <v>3.5</v>
@@ -6838,10 +5935,10 @@
     </row>
     <row r="291">
       <c r="A291" s="4" t="s">
-        <v>312</v>
+        <v>24</v>
       </c>
       <c r="B291" s="4" t="s">
-        <v>300</v>
+        <v>7</v>
       </c>
       <c r="C291" s="2" t="n">
         <v>3.5</v>
@@ -6858,10 +5955,10 @@
     </row>
     <row r="292">
       <c r="A292" s="4" t="s">
-        <v>313</v>
+        <v>24</v>
       </c>
       <c r="B292" s="4" t="s">
-        <v>300</v>
+        <v>7</v>
       </c>
       <c r="C292" s="2" t="n">
         <v>4.0</v>
@@ -6878,10 +5975,10 @@
     </row>
     <row r="293">
       <c r="A293" s="4" t="s">
-        <v>314</v>
+        <v>24</v>
       </c>
       <c r="B293" s="4" t="s">
-        <v>300</v>
+        <v>7</v>
       </c>
       <c r="C293" s="2" t="n">
         <v>3.5</v>
@@ -6898,10 +5995,10 @@
     </row>
     <row r="294">
       <c r="A294" s="4" t="s">
-        <v>315</v>
+        <v>24</v>
       </c>
       <c r="B294" s="4" t="s">
-        <v>300</v>
+        <v>7</v>
       </c>
       <c r="C294" s="2" t="n">
         <v>4.0</v>
@@ -6918,10 +6015,10 @@
     </row>
     <row r="295">
       <c r="A295" s="4" t="s">
-        <v>316</v>
+        <v>25</v>
       </c>
       <c r="B295" s="4" t="s">
-        <v>317</v>
+        <v>7</v>
       </c>
       <c r="C295" s="2" t="n">
         <v>4.0</v>
@@ -6938,10 +6035,10 @@
     </row>
     <row r="296">
       <c r="A296" s="4" t="s">
-        <v>318</v>
+        <v>25</v>
       </c>
       <c r="B296" s="4" t="s">
-        <v>317</v>
+        <v>7</v>
       </c>
       <c r="C296" s="2" t="n">
         <v>3.5</v>
@@ -6958,10 +6055,10 @@
     </row>
     <row r="297">
       <c r="A297" s="4" t="s">
-        <v>319</v>
+        <v>25</v>
       </c>
       <c r="B297" s="4" t="s">
-        <v>317</v>
+        <v>7</v>
       </c>
       <c r="C297" s="2" t="n">
         <v>3.5</v>
@@ -6978,10 +6075,10 @@
     </row>
     <row r="298">
       <c r="A298" s="4" t="s">
-        <v>320</v>
+        <v>25</v>
       </c>
       <c r="B298" s="4" t="s">
-        <v>317</v>
+        <v>7</v>
       </c>
       <c r="C298" s="2" t="n">
         <v>4.0</v>
@@ -6998,10 +6095,10 @@
     </row>
     <row r="299">
       <c r="A299" s="4" t="s">
-        <v>321</v>
+        <v>25</v>
       </c>
       <c r="B299" s="4" t="s">
-        <v>317</v>
+        <v>7</v>
       </c>
       <c r="C299" s="2" t="n">
         <v>4.0</v>
@@ -7018,10 +6115,10 @@
     </row>
     <row r="300">
       <c r="A300" s="4" t="s">
-        <v>322</v>
+        <v>23</v>
       </c>
       <c r="B300" s="4" t="s">
-        <v>295</v>
+        <v>7</v>
       </c>
       <c r="C300" s="2" t="n">
         <v>3.0</v>
@@ -7038,10 +6135,10 @@
     </row>
     <row r="301">
       <c r="A301" s="4" t="s">
-        <v>323</v>
+        <v>26</v>
       </c>
       <c r="B301" s="4" t="s">
-        <v>324</v>
+        <v>7</v>
       </c>
       <c r="C301" s="2" t="n">
         <v>4.0</v>
@@ -7058,10 +6155,10 @@
     </row>
     <row r="302">
       <c r="A302" s="4" t="s">
-        <v>325</v>
+        <v>26</v>
       </c>
       <c r="B302" s="4" t="s">
-        <v>324</v>
+        <v>7</v>
       </c>
       <c r="C302" s="2" t="n">
         <v>4.5</v>
@@ -7078,10 +6175,10 @@
     </row>
     <row r="303">
       <c r="A303" s="4" t="s">
-        <v>326</v>
+        <v>26</v>
       </c>
       <c r="B303" s="4" t="s">
-        <v>324</v>
+        <v>7</v>
       </c>
       <c r="C303" s="2" t="n">
         <v>4.5</v>
@@ -7098,10 +6195,10 @@
     </row>
     <row r="304">
       <c r="A304" s="4" t="s">
-        <v>327</v>
+        <v>26</v>
       </c>
       <c r="B304" s="4" t="s">
-        <v>324</v>
+        <v>7</v>
       </c>
       <c r="C304" s="2" t="n">
         <v>4.5</v>
